--- a/file/learn.xlsx
+++ b/file/learn.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\web\joyce-work\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\web\meow\file\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="566" uniqueCount="184">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="566" uniqueCount="188">
   <si>
     <t>每月固定課程</t>
   </si>
@@ -508,89 +508,105 @@
   </si>
   <si>
     <t>sharing</t>
+  </si>
+  <si>
+    <t>classTime</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Title</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Teacher</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Url</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Check</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lesson</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>classDate</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>02台中悠樂芳</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>實體現場</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>className</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>growing</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Address</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>classType</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>01台北</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>01台北</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>01台北</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>02台中</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>02台中</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>02台中</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://m.facebook.com/groups/393653484462016</t>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>classDay</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>classTime</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>Title</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>Teacher</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>Url</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>Check</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>class</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>Lesson</t>
+    <t>每周固定課程</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>classDate</t>
+    <t>每月固定課程</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>02台中悠樂芳</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>實體現場</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>className</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>growing</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>Address</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>classType</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>01台北</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>01台北</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>01台北</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>02台中</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>02台中</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>02台中</t>
+    <t>單堂</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -598,7 +614,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -753,6 +769,15 @@
     </font>
     <font>
       <sz val="9"/>
+      <name val="新細明體"/>
+      <family val="2"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
       <name val="新細明體"/>
       <family val="2"/>
       <charset val="136"/>
@@ -1056,7 +1081,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="42">
+  <cellStyleXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1183,16 +1208,22 @@
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="42">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="42">
+  <cellStyles count="43">
     <cellStyle name="20% - 輔色1" xfId="19" builtinId="30" customBuiltin="1"/>
     <cellStyle name="20% - 輔色2" xfId="23" builtinId="34" customBuiltin="1"/>
     <cellStyle name="20% - 輔色3" xfId="27" builtinId="38" customBuiltin="1"/>
@@ -1218,6 +1249,7 @@
     <cellStyle name="計算方式" xfId="11" builtinId="22" customBuiltin="1"/>
     <cellStyle name="連結的儲存格" xfId="12" builtinId="24" customBuiltin="1"/>
     <cellStyle name="備註" xfId="15" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="超連結" xfId="42" builtinId="8"/>
     <cellStyle name="說明文字" xfId="16" builtinId="53" customBuiltin="1"/>
     <cellStyle name="輔色1" xfId="18" builtinId="29" customBuiltin="1"/>
     <cellStyle name="輔色2" xfId="22" builtinId="33" customBuiltin="1"/>
@@ -1514,8 +1546,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -1534,48 +1566,48 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>172</v>
+      </c>
+      <c r="B1" t="s">
+        <v>184</v>
+      </c>
+      <c r="C1" t="s">
+        <v>175</v>
+      </c>
+      <c r="D1" t="s">
+        <v>168</v>
+      </c>
+      <c r="E1" t="s">
+        <v>169</v>
+      </c>
+      <c r="F1" t="s">
+        <v>183</v>
+      </c>
+      <c r="G1" t="s">
+        <v>163</v>
+      </c>
+      <c r="H1" t="s">
+        <v>164</v>
+      </c>
+      <c r="I1" t="s">
+        <v>165</v>
+      </c>
+      <c r="J1" t="s">
         <v>174</v>
       </c>
-      <c r="B1" t="s">
-        <v>169</v>
-      </c>
-      <c r="C1" t="s">
-        <v>177</v>
-      </c>
-      <c r="D1" t="s">
-        <v>170</v>
-      </c>
-      <c r="E1" t="s">
-        <v>171</v>
-      </c>
-      <c r="F1" t="s">
-        <v>163</v>
-      </c>
-      <c r="G1" t="s">
-        <v>164</v>
-      </c>
-      <c r="H1" t="s">
-        <v>165</v>
-      </c>
-      <c r="I1" t="s">
+      <c r="K1" t="s">
         <v>166</v>
       </c>
-      <c r="J1" t="s">
-        <v>176</v>
-      </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>167</v>
-      </c>
-      <c r="L1" t="s">
-        <v>168</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="D2" t="s">
-        <v>0</v>
+        <v>186</v>
       </c>
       <c r="E2" t="s">
         <v>1</v>
@@ -2001,7 +2033,7 @@
         <v>16</v>
       </c>
       <c r="D17" t="s">
-        <v>33</v>
+        <v>187</v>
       </c>
       <c r="E17" s="1">
         <v>44792</v>
@@ -2053,8 +2085,8 @@
       <c r="J18" t="s">
         <v>53</v>
       </c>
-      <c r="K18" t="s">
-        <v>54</v>
+      <c r="K18" s="2" t="s">
+        <v>182</v>
       </c>
       <c r="L18" t="s">
         <v>49</v>
@@ -2745,10 +2777,10 @@
         <v>109</v>
       </c>
       <c r="C38" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="D38" t="s">
-        <v>17</v>
+        <v>185</v>
       </c>
       <c r="E38" s="1">
         <v>44810</v>
@@ -3222,7 +3254,7 @@
         <v>147</v>
       </c>
       <c r="J50" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="K50" t="s">
         <v>148</v>
@@ -3260,7 +3292,7 @@
         <v>152</v>
       </c>
       <c r="J51" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="K51" t="s">
         <v>153</v>
@@ -3298,7 +3330,7 @@
         <v>152</v>
       </c>
       <c r="J52" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="K52" t="s">
         <v>156</v>
@@ -3336,7 +3368,7 @@
         <v>152</v>
       </c>
       <c r="J53" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="K53" t="s">
         <v>156</v>
@@ -3374,7 +3406,7 @@
         <v>160</v>
       </c>
       <c r="J54" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="K54" t="s">
         <v>153</v>
@@ -3412,7 +3444,7 @@
         <v>160</v>
       </c>
       <c r="J55" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="K55" t="s">
         <v>153</v>
@@ -3450,7 +3482,7 @@
         <v>160</v>
       </c>
       <c r="J56" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="K56" t="s">
         <v>156</v>
@@ -3488,7 +3520,7 @@
         <v>160</v>
       </c>
       <c r="J57" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="K57" t="s">
         <v>153</v>
@@ -3499,7 +3531,10 @@
     </row>
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="K18" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="0" r:id="rId2"/>
 </worksheet>
 </file>
--- a/file/learn.xlsx
+++ b/file/learn.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="566" uniqueCount="188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="847" uniqueCount="213">
   <si>
     <t>每月固定課程</t>
   </si>
@@ -162,30 +162,18 @@
     <t>13:00-13:30</t>
   </si>
   <si>
-    <t>皮拉提斯瑜伽</t>
-  </si>
-  <si>
     <t>孫沛芳</t>
   </si>
   <si>
     <t>確認無誤。</t>
   </si>
   <si>
-    <t>悠樂芳領袖</t>
-  </si>
-  <si>
     <t>11:00-12:00</t>
   </si>
   <si>
     <t>九月好康報報</t>
   </si>
   <si>
-    <t>悠樂芳臉書社團</t>
-  </si>
-  <si>
-    <t>https://m.facebook.com/groups/393653484462016</t>
-  </si>
-  <si>
     <t>日</t>
   </si>
   <si>
@@ -273,9 +261,6 @@
     <t>天使精油～愛情篇</t>
   </si>
   <si>
-    <t>徐琬淳（Zoe)，王建震（Neo)</t>
-  </si>
-  <si>
     <t>https://reurl.cc/kEXd9L</t>
   </si>
   <si>
@@ -300,18 +285,12 @@
     <t>黛兒</t>
   </si>
   <si>
-    <t>Google meet</t>
-  </si>
-  <si>
     <t>https://docs.google.com/forms/d/1_nc_yGihOkLstIxRh0XkjO5hx7z7t6iXy38OpnhbIms/edit</t>
   </si>
   <si>
     <t>商德教育</t>
   </si>
   <si>
-    <t>08:00-09:00</t>
-  </si>
-  <si>
     <t>聲聲呼喚心想視騁</t>
   </si>
   <si>
@@ -336,9 +315,6 @@
     <t>劉育英</t>
   </si>
   <si>
-    <t>台中北屯</t>
-  </si>
-  <si>
     <t>https://docs.google.com/forms/d/e/1FAIpQLScsqGF-oDZw0s8rwhIZ4AeAofvlVc5ZsLSvAfso39iT8Re62A/viewform?fs=e&amp;s=cl</t>
   </si>
   <si>
@@ -369,9 +345,6 @@
     <t>13:30-15:30</t>
   </si>
   <si>
-    <t>9月燭臺</t>
-  </si>
-  <si>
     <t>菁菁</t>
   </si>
   <si>
@@ -381,18 +354,9 @@
     <t>https://forms.gle/p5MiW5QQp7g6zgXQA</t>
   </si>
   <si>
-    <t>精油紫微啟動生命潛能</t>
-  </si>
-  <si>
-    <t>林建廷</t>
-  </si>
-  <si>
     <t>02台中悠樂芳</t>
   </si>
   <si>
-    <t>https://forms.gle/8aY1sficNL1moToY8</t>
-  </si>
-  <si>
     <t>10:10-12:00</t>
   </si>
   <si>
@@ -405,9 +369,6 @@
     <t>育璟</t>
   </si>
   <si>
-    <t>03台南北區</t>
-  </si>
-  <si>
     <t>https://forms.gle/zfuFKE9hVY7q7wva7</t>
   </si>
   <si>
@@ -435,13 +396,7 @@
     <t>紫彤</t>
   </si>
   <si>
-    <t>03台南市新市區富安二街141號「消防局正對面」</t>
-  </si>
-  <si>
     <t>https://docs.google.com/forms/d/1lCot9l7Zc06N_CPZA5Ebw94Ny7IdrTOl0c5Lhtp4I0g/edit</t>
-  </si>
-  <si>
-    <t>報名連結有誤,尚未更正</t>
   </si>
   <si>
     <t>22:00-22:30</t>
@@ -538,14 +493,6 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>02台中悠樂芳</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>實體現場</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>className</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
@@ -562,34 +509,6 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>01台北</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>01台北</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>01台北</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>02台中</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>02台中</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>02台中</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://m.facebook.com/groups/393653484462016</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>classDay</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
@@ -598,23 +517,167 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>每周固定課程</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>每月固定課程</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>單堂</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <t>悠樂芳領袖營</t>
+  </si>
+  <si>
+    <t>悠樂芳領袖營FB線上直播</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/groups/393653484462016/?ref=share</t>
+  </si>
+  <si>
+    <t>21:30-22:30</t>
+  </si>
+  <si>
+    <t>精油知識家-精油小百科</t>
+  </si>
+  <si>
+    <t>賴鏡旭</t>
+  </si>
+  <si>
+    <t>行善佈施迴向系列</t>
+  </si>
+  <si>
+    <t>宋承鴻</t>
+  </si>
+  <si>
+    <t>10:00-14:00</t>
+  </si>
+  <si>
+    <t>喵喵團隊中秋聚</t>
+  </si>
+  <si>
+    <t>14:30-15:30</t>
+  </si>
+  <si>
+    <t>精油組的身心靈應用</t>
+  </si>
+  <si>
+    <t>美慧、喵喵</t>
+  </si>
+  <si>
+    <t>19:00-21:00</t>
+  </si>
+  <si>
+    <t>生命靈數與八字</t>
+  </si>
+  <si>
+    <t>凱文老師</t>
+  </si>
+  <si>
+    <t>10:30-12:30</t>
+  </si>
+  <si>
+    <t>你可以做的各種霜</t>
+  </si>
+  <si>
+    <t>玲甄、育璟</t>
+  </si>
+  <si>
+    <t>19:30-21:00</t>
+  </si>
+  <si>
+    <t>身體訊息∞愛的流動</t>
+  </si>
+  <si>
+    <t>國姐</t>
+  </si>
+  <si>
+    <t>皮拉提斯瑜珈</t>
+  </si>
+  <si>
+    <t>徐琬淳Zoe，王建震Neo</t>
+  </si>
+  <si>
+    <t>10:00-12:00</t>
+  </si>
+  <si>
+    <t>你可以做的各種膏</t>
+  </si>
+  <si>
+    <t>貓教官</t>
+  </si>
+  <si>
+    <t>認識種子法則</t>
+  </si>
+  <si>
+    <t>Kammy、喵喵</t>
+  </si>
+  <si>
+    <t>芳療按摩課程-三伏貼精油背部按摩手法</t>
+  </si>
+  <si>
+    <t>張玉敬</t>
+  </si>
+  <si>
+    <t>芳療按摩課程-頭部芳香舒壓按摩手法</t>
+  </si>
+  <si>
+    <t>20:00-21:30</t>
+  </si>
+  <si>
+    <t>用精油啟動你的DISC</t>
+  </si>
+  <si>
+    <t>蔡文山、陳小紅</t>
+  </si>
+  <si>
+    <t>19:30-22:00</t>
+  </si>
+  <si>
+    <t>平衡飲食班(2堂課皆須完成)</t>
+  </si>
+  <si>
+    <t>雪人老師</t>
+  </si>
+  <si>
+    <t>00zoom</t>
+  </si>
+  <si>
+    <t>https://www.surveycake.com/s/q3W26</t>
+  </si>
+  <si>
+    <t>靈數塔羅占卜快速上手</t>
+  </si>
+  <si>
+    <t>貝瑪多傑/satako</t>
+  </si>
+  <si>
+    <t>https://reurl.cc/yrxd8E</t>
+  </si>
+  <si>
+    <t>個人DISC檢測與解析</t>
+  </si>
+  <si>
+    <t>https://forms.gle/ktSc3pUPy72Yczcx5</t>
+  </si>
+  <si>
+    <t>01台北</t>
+  </si>
+  <si>
+    <t>經典燭臺</t>
+  </si>
+  <si>
+    <t>10:30-12:00</t>
+  </si>
+  <si>
+    <t>牌卡療心手作擴香石</t>
+  </si>
+  <si>
+    <t>02台中</t>
+  </si>
+  <si>
+    <t>04台南北區</t>
+  </si>
+  <si>
+    <t>04台南市新市區富安二街141號「消防局正對面」</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="20" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -769,15 +832,6 @@
     </font>
     <font>
       <sz val="9"/>
-      <name val="新細明體"/>
-      <family val="2"/>
-      <charset val="136"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="12"/>
-      <color theme="10"/>
       <name val="新細明體"/>
       <family val="2"/>
       <charset val="136"/>
@@ -1081,7 +1135,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="43">
+  <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1208,22 +1262,16 @@
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="42">
-      <alignment vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="43">
+  <cellStyles count="42">
     <cellStyle name="20% - 輔色1" xfId="19" builtinId="30" customBuiltin="1"/>
     <cellStyle name="20% - 輔色2" xfId="23" builtinId="34" customBuiltin="1"/>
     <cellStyle name="20% - 輔色3" xfId="27" builtinId="38" customBuiltin="1"/>
@@ -1249,7 +1297,6 @@
     <cellStyle name="計算方式" xfId="11" builtinId="22" customBuiltin="1"/>
     <cellStyle name="連結的儲存格" xfId="12" builtinId="24" customBuiltin="1"/>
     <cellStyle name="備註" xfId="15" builtinId="10" customBuiltin="1"/>
-    <cellStyle name="超連結" xfId="42" builtinId="8"/>
     <cellStyle name="說明文字" xfId="16" builtinId="53" customBuiltin="1"/>
     <cellStyle name="輔色1" xfId="18" builtinId="29" customBuiltin="1"/>
     <cellStyle name="輔色2" xfId="22" builtinId="33" customBuiltin="1"/>
@@ -1544,10 +1591,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L57"/>
+  <dimension ref="A1:L89"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H22" sqref="H22"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="F68" sqref="F68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -1566,48 +1613,48 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>172</v>
+        <v>155</v>
       </c>
       <c r="B1" t="s">
-        <v>184</v>
+        <v>160</v>
       </c>
       <c r="C1" t="s">
-        <v>175</v>
+        <v>158</v>
       </c>
       <c r="D1" t="s">
-        <v>168</v>
+        <v>153</v>
       </c>
       <c r="E1" t="s">
-        <v>169</v>
+        <v>154</v>
       </c>
       <c r="F1" t="s">
-        <v>183</v>
+        <v>159</v>
       </c>
       <c r="G1" t="s">
-        <v>163</v>
+        <v>148</v>
       </c>
       <c r="H1" t="s">
-        <v>164</v>
+        <v>149</v>
       </c>
       <c r="I1" t="s">
-        <v>165</v>
+        <v>150</v>
       </c>
       <c r="J1" t="s">
-        <v>174</v>
+        <v>157</v>
       </c>
       <c r="K1" t="s">
-        <v>166</v>
+        <v>151</v>
       </c>
       <c r="L1" t="s">
-        <v>167</v>
+        <v>152</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>173</v>
+        <v>156</v>
       </c>
       <c r="D2" t="s">
-        <v>186</v>
+        <v>0</v>
       </c>
       <c r="E2" t="s">
         <v>1</v>
@@ -1624,7 +1671,7 @@
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>161</v>
+        <v>146</v>
       </c>
       <c r="D3" t="s">
         <v>0</v>
@@ -1644,7 +1691,7 @@
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>161</v>
+        <v>146</v>
       </c>
       <c r="D4" t="s">
         <v>0</v>
@@ -1664,7 +1711,7 @@
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>161</v>
+        <v>146</v>
       </c>
       <c r="D5" t="s">
         <v>0</v>
@@ -1684,7 +1731,7 @@
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>161</v>
+        <v>146</v>
       </c>
       <c r="D6" t="s">
         <v>0</v>
@@ -1704,7 +1751,7 @@
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>161</v>
+        <v>146</v>
       </c>
       <c r="B7" t="s">
         <v>15</v>
@@ -1715,9 +1762,6 @@
       <c r="D7" t="s">
         <v>17</v>
       </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
       <c r="F7" t="s">
         <v>18</v>
       </c>
@@ -1736,7 +1780,7 @@
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>161</v>
+        <v>146</v>
       </c>
       <c r="B8" t="s">
         <v>15</v>
@@ -1748,62 +1792,65 @@
         <v>17</v>
       </c>
       <c r="E8" s="1">
-        <v>44810</v>
+        <v>44805</v>
       </c>
       <c r="F8" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="G8" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="H8" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="I8" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="J8" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>161</v>
+        <v>146</v>
       </c>
       <c r="B9" t="s">
-        <v>15</v>
+        <v>139</v>
       </c>
       <c r="C9" t="s">
         <v>16</v>
       </c>
       <c r="D9" t="s">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="E9" s="1">
-        <v>44812</v>
+        <v>44805</v>
       </c>
       <c r="F9" t="s">
         <v>27</v>
       </c>
       <c r="G9" t="s">
-        <v>28</v>
+        <v>49</v>
       </c>
       <c r="H9" t="s">
-        <v>29</v>
+        <v>50</v>
       </c>
       <c r="I9" t="s">
-        <v>30</v>
+        <v>161</v>
       </c>
       <c r="J9" t="s">
-        <v>31</v>
+        <v>162</v>
+      </c>
+      <c r="K9" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>161</v>
+        <v>146</v>
       </c>
       <c r="B10" t="s">
-        <v>32</v>
+        <v>139</v>
       </c>
       <c r="C10" t="s">
         <v>16</v>
@@ -1811,20 +1858,20 @@
       <c r="D10" t="s">
         <v>33</v>
       </c>
-      <c r="E10">
-        <v>0</v>
+      <c r="E10" s="1">
+        <v>44805</v>
       </c>
       <c r="F10" t="s">
         <v>27</v>
       </c>
       <c r="G10" t="s">
-        <v>24</v>
+        <v>164</v>
       </c>
       <c r="H10" t="s">
-        <v>34</v>
+        <v>165</v>
       </c>
       <c r="I10" t="s">
-        <v>35</v>
+        <v>166</v>
       </c>
       <c r="J10" t="s">
         <v>22</v>
@@ -1832,10 +1879,10 @@
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>161</v>
+        <v>146</v>
       </c>
       <c r="B11" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="C11" t="s">
         <v>16</v>
@@ -1843,20 +1890,20 @@
       <c r="D11" t="s">
         <v>33</v>
       </c>
-      <c r="E11">
-        <v>0</v>
+      <c r="E11" s="1">
+        <v>44806</v>
       </c>
       <c r="F11" t="s">
         <v>36</v>
       </c>
       <c r="G11" t="s">
-        <v>24</v>
+        <v>71</v>
       </c>
       <c r="H11" t="s">
-        <v>37</v>
+        <v>167</v>
       </c>
       <c r="I11" t="s">
-        <v>35</v>
+        <v>168</v>
       </c>
       <c r="J11" t="s">
         <v>22</v>
@@ -1864,10 +1911,10 @@
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>161</v>
+        <v>146</v>
       </c>
       <c r="B12" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="C12" t="s">
         <v>16</v>
@@ -1875,84 +1922,93 @@
       <c r="D12" t="s">
         <v>33</v>
       </c>
-      <c r="E12">
-        <v>0</v>
+      <c r="E12" s="1">
+        <v>44808</v>
       </c>
       <c r="F12" t="s">
-        <v>38</v>
+        <v>51</v>
       </c>
       <c r="G12" t="s">
-        <v>24</v>
+        <v>52</v>
       </c>
       <c r="H12" t="s">
-        <v>39</v>
+        <v>53</v>
       </c>
       <c r="I12" t="s">
-        <v>35</v>
+        <v>54</v>
       </c>
       <c r="J12" t="s">
-        <v>22</v>
+        <v>55</v>
+      </c>
+      <c r="K12" t="s">
+        <v>56</v>
+      </c>
+      <c r="L12" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
+        <v>146</v>
+      </c>
+      <c r="B13" t="s">
+        <v>139</v>
+      </c>
+      <c r="C13" t="s">
+        <v>16</v>
+      </c>
+      <c r="D13" t="s">
+        <v>33</v>
+      </c>
+      <c r="E13" s="1">
+        <v>44809</v>
+      </c>
+      <c r="F13" t="s">
+        <v>57</v>
+      </c>
+      <c r="G13" t="s">
+        <v>49</v>
+      </c>
+      <c r="H13" t="s">
+        <v>58</v>
+      </c>
+      <c r="I13" t="s">
         <v>161</v>
       </c>
-      <c r="B13" t="s">
-        <v>32</v>
-      </c>
-      <c r="C13" t="s">
-        <v>16</v>
-      </c>
-      <c r="D13" t="s">
-        <v>33</v>
-      </c>
-      <c r="E13">
-        <v>0</v>
-      </c>
-      <c r="F13" t="s">
-        <v>27</v>
-      </c>
-      <c r="G13" t="s">
-        <v>24</v>
-      </c>
-      <c r="H13" t="s">
-        <v>40</v>
-      </c>
-      <c r="I13" t="s">
-        <v>41</v>
-      </c>
       <c r="J13" t="s">
-        <v>22</v>
+        <v>162</v>
+      </c>
+      <c r="K13" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>161</v>
+        <v>146</v>
       </c>
       <c r="B14" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="C14" t="s">
         <v>16</v>
       </c>
       <c r="D14" t="s">
-        <v>33</v>
-      </c>
-      <c r="E14">
-        <v>0</v>
+        <v>17</v>
+      </c>
+      <c r="E14" s="1">
+        <v>44810</v>
       </c>
       <c r="F14" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="G14" t="s">
         <v>24</v>
       </c>
       <c r="H14" t="s">
-        <v>42</v>
+        <v>25</v>
       </c>
       <c r="I14" t="s">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="J14" t="s">
         <v>22</v>
@@ -1960,63 +2016,60 @@
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>161</v>
+        <v>146</v>
       </c>
       <c r="B15" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="C15" t="s">
-        <v>16</v>
+        <v>94</v>
       </c>
       <c r="D15" t="s">
         <v>33</v>
       </c>
-      <c r="E15">
-        <v>0</v>
+      <c r="E15" s="1">
+        <v>44810</v>
       </c>
       <c r="F15" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="G15" t="s">
-        <v>24</v>
+        <v>169</v>
       </c>
       <c r="H15" t="s">
-        <v>43</v>
-      </c>
-      <c r="I15" t="s">
-        <v>44</v>
+        <v>170</v>
       </c>
       <c r="J15" t="s">
-        <v>22</v>
+        <v>145</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>161</v>
+        <v>146</v>
       </c>
       <c r="B16" t="s">
-        <v>32</v>
+        <v>139</v>
       </c>
       <c r="C16" t="s">
-        <v>16</v>
+        <v>94</v>
       </c>
       <c r="D16" t="s">
         <v>33</v>
       </c>
-      <c r="E16">
-        <v>0</v>
+      <c r="E16" s="1">
+        <v>44810</v>
       </c>
       <c r="F16" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="G16" t="s">
-        <v>24</v>
+        <v>171</v>
       </c>
       <c r="H16" t="s">
-        <v>45</v>
+        <v>172</v>
       </c>
       <c r="I16" t="s">
-        <v>44</v>
+        <v>173</v>
       </c>
       <c r="J16" t="s">
         <v>22</v>
@@ -2024,77 +2077,71 @@
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>161</v>
+        <v>146</v>
       </c>
       <c r="B17" t="s">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="C17" t="s">
         <v>16</v>
       </c>
       <c r="D17" t="s">
-        <v>187</v>
+        <v>33</v>
       </c>
       <c r="E17" s="1">
-        <v>44792</v>
+        <v>44811</v>
       </c>
       <c r="F17" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="G17" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="H17" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="I17" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="J17" t="s">
         <v>22</v>
-      </c>
-      <c r="L17" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>161</v>
+        <v>146</v>
       </c>
       <c r="B18" t="s">
-        <v>50</v>
+        <v>15</v>
       </c>
       <c r="C18" t="s">
         <v>16</v>
       </c>
       <c r="D18" t="s">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="E18" s="1">
-        <v>44805</v>
+        <v>44811</v>
       </c>
       <c r="F18" t="s">
-        <v>27</v>
+        <v>59</v>
       </c>
       <c r="G18" t="s">
-        <v>51</v>
+        <v>174</v>
       </c>
       <c r="H18" t="s">
-        <v>52</v>
+        <v>175</v>
+      </c>
+      <c r="I18" t="s">
+        <v>176</v>
       </c>
       <c r="J18" t="s">
-        <v>53</v>
-      </c>
-      <c r="K18" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="L18" t="s">
-        <v>49</v>
+        <v>22</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>161</v>
+        <v>146</v>
       </c>
       <c r="B19" t="s">
         <v>15</v>
@@ -2106,71 +2153,62 @@
         <v>33</v>
       </c>
       <c r="E19" s="1">
-        <v>44808</v>
+        <v>44811</v>
       </c>
       <c r="F19" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="G19" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="H19" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="I19" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="J19" t="s">
-        <v>59</v>
-      </c>
-      <c r="K19" t="s">
-        <v>60</v>
-      </c>
-      <c r="L19" t="s">
-        <v>49</v>
+        <v>22</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>161</v>
+        <v>146</v>
       </c>
       <c r="B20" t="s">
-        <v>50</v>
+        <v>15</v>
       </c>
       <c r="C20" t="s">
         <v>16</v>
       </c>
       <c r="D20" t="s">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="E20" s="1">
-        <v>44809</v>
+        <v>44812</v>
       </c>
       <c r="F20" t="s">
-        <v>61</v>
+        <v>27</v>
       </c>
       <c r="G20" t="s">
-        <v>51</v>
+        <v>28</v>
       </c>
       <c r="H20" t="s">
-        <v>62</v>
+        <v>29</v>
+      </c>
+      <c r="I20" t="s">
+        <v>30</v>
       </c>
       <c r="J20" t="s">
-        <v>53</v>
-      </c>
-      <c r="K20" t="s">
-        <v>54</v>
-      </c>
-      <c r="L20" t="s">
-        <v>49</v>
+        <v>22</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>161</v>
+        <v>146</v>
       </c>
       <c r="B21" t="s">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="C21" t="s">
         <v>16</v>
@@ -2179,19 +2217,19 @@
         <v>33</v>
       </c>
       <c r="E21" s="1">
-        <v>44811</v>
+        <v>44812</v>
       </c>
       <c r="F21" t="s">
-        <v>63</v>
+        <v>27</v>
       </c>
       <c r="G21" t="s">
-        <v>64</v>
+        <v>24</v>
       </c>
       <c r="H21" t="s">
-        <v>65</v>
+        <v>34</v>
       </c>
       <c r="I21" t="s">
-        <v>66</v>
+        <v>35</v>
       </c>
       <c r="J21" t="s">
         <v>22</v>
@@ -2199,10 +2237,10 @@
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>161</v>
+        <v>146</v>
       </c>
       <c r="B22" t="s">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="C22" t="s">
         <v>16</v>
@@ -2211,30 +2249,27 @@
         <v>33</v>
       </c>
       <c r="E22" s="1">
-        <v>44814</v>
+        <v>44813</v>
       </c>
       <c r="F22" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G22" t="s">
-        <v>67</v>
+        <v>24</v>
       </c>
       <c r="H22" t="s">
-        <v>68</v>
+        <v>39</v>
       </c>
       <c r="I22" t="s">
-        <v>69</v>
+        <v>35</v>
       </c>
       <c r="J22" t="s">
         <v>22</v>
-      </c>
-      <c r="L22" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>161</v>
+        <v>146</v>
       </c>
       <c r="B23" t="s">
         <v>15</v>
@@ -2246,33 +2281,30 @@
         <v>33</v>
       </c>
       <c r="E23" s="1">
-        <v>44816</v>
+        <v>44813</v>
       </c>
       <c r="F23" t="s">
-        <v>61</v>
+        <v>36</v>
       </c>
       <c r="G23" t="s">
-        <v>46</v>
+        <v>71</v>
       </c>
       <c r="H23" t="s">
-        <v>70</v>
+        <v>167</v>
       </c>
       <c r="I23" t="s">
-        <v>48</v>
+        <v>168</v>
       </c>
       <c r="J23" t="s">
         <v>22</v>
-      </c>
-      <c r="L23" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>161</v>
+        <v>146</v>
       </c>
       <c r="B24" t="s">
-        <v>50</v>
+        <v>15</v>
       </c>
       <c r="C24" t="s">
         <v>16</v>
@@ -2281,100 +2313,94 @@
         <v>33</v>
       </c>
       <c r="E24" s="1">
-        <v>44816</v>
+        <v>44814</v>
       </c>
       <c r="F24" t="s">
-        <v>61</v>
+        <v>38</v>
       </c>
       <c r="G24" t="s">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="H24" t="s">
-        <v>71</v>
+        <v>64</v>
+      </c>
+      <c r="I24" t="s">
+        <v>65</v>
       </c>
       <c r="J24" t="s">
-        <v>53</v>
-      </c>
-      <c r="K24" t="s">
-        <v>54</v>
+        <v>22</v>
       </c>
       <c r="L24" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>161</v>
+        <v>146</v>
       </c>
       <c r="B25" t="s">
         <v>15</v>
       </c>
       <c r="C25" t="s">
-        <v>16</v>
+        <v>94</v>
       </c>
       <c r="D25" t="s">
         <v>33</v>
       </c>
       <c r="E25" s="1">
-        <v>44817</v>
+        <v>44816</v>
       </c>
       <c r="F25" t="s">
-        <v>23</v>
+        <v>57</v>
       </c>
       <c r="G25" t="s">
-        <v>72</v>
+        <v>177</v>
       </c>
       <c r="H25" t="s">
-        <v>73</v>
-      </c>
-      <c r="I25" t="s">
-        <v>74</v>
+        <v>170</v>
       </c>
       <c r="J25" t="s">
         <v>22</v>
-      </c>
-      <c r="L25" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
+        <v>146</v>
+      </c>
+      <c r="B26" t="s">
+        <v>139</v>
+      </c>
+      <c r="C26" t="s">
+        <v>16</v>
+      </c>
+      <c r="D26" t="s">
+        <v>33</v>
+      </c>
+      <c r="E26" s="1">
+        <v>44816</v>
+      </c>
+      <c r="F26" t="s">
+        <v>57</v>
+      </c>
+      <c r="G26" t="s">
+        <v>49</v>
+      </c>
+      <c r="H26" t="s">
+        <v>67</v>
+      </c>
+      <c r="I26" t="s">
         <v>161</v>
       </c>
-      <c r="B26" t="s">
-        <v>15</v>
-      </c>
-      <c r="C26" t="s">
-        <v>16</v>
-      </c>
-      <c r="D26" t="s">
-        <v>33</v>
-      </c>
-      <c r="E26" s="1">
-        <v>44818</v>
-      </c>
-      <c r="F26" t="s">
-        <v>63</v>
-      </c>
-      <c r="G26" t="s">
-        <v>75</v>
-      </c>
-      <c r="H26" t="s">
-        <v>76</v>
-      </c>
-      <c r="I26" t="s">
-        <v>77</v>
-      </c>
       <c r="J26" t="s">
         <v>22</v>
       </c>
-      <c r="L26" t="s">
-        <v>49</v>
+      <c r="K26" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>161</v>
+        <v>146</v>
       </c>
       <c r="B27" t="s">
         <v>15</v>
@@ -2386,68 +2412,62 @@
         <v>33</v>
       </c>
       <c r="E27" s="1">
-        <v>44819</v>
+        <v>44816</v>
       </c>
       <c r="F27" t="s">
-        <v>27</v>
+        <v>57</v>
       </c>
       <c r="G27" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="H27" t="s">
-        <v>78</v>
+        <v>66</v>
       </c>
       <c r="I27" t="s">
-        <v>79</v>
+        <v>47</v>
       </c>
       <c r="J27" t="s">
         <v>22</v>
       </c>
       <c r="L27" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>161</v>
+        <v>146</v>
       </c>
       <c r="B28" t="s">
-        <v>15</v>
+        <v>139</v>
       </c>
       <c r="C28" t="s">
-        <v>16</v>
+        <v>94</v>
       </c>
       <c r="D28" t="s">
         <v>33</v>
       </c>
       <c r="E28" s="1">
-        <v>44819</v>
+        <v>44816</v>
       </c>
       <c r="F28" t="s">
-        <v>27</v>
+        <v>57</v>
       </c>
       <c r="G28" t="s">
-        <v>75</v>
+        <v>107</v>
       </c>
       <c r="H28" t="s">
-        <v>80</v>
+        <v>178</v>
       </c>
       <c r="I28" t="s">
-        <v>81</v>
+        <v>179</v>
       </c>
       <c r="J28" t="s">
         <v>22</v>
-      </c>
-      <c r="K28" t="s">
-        <v>82</v>
-      </c>
-      <c r="L28" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>161</v>
+        <v>146</v>
       </c>
       <c r="B29" t="s">
         <v>15</v>
@@ -2456,36 +2476,30 @@
         <v>16</v>
       </c>
       <c r="D29" t="s">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="E29" s="1">
-        <v>44820</v>
+        <v>44817</v>
       </c>
       <c r="F29" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="G29" t="s">
-        <v>75</v>
+        <v>24</v>
       </c>
       <c r="H29" t="s">
-        <v>83</v>
+        <v>25</v>
       </c>
       <c r="I29" t="s">
-        <v>84</v>
+        <v>26</v>
       </c>
       <c r="J29" t="s">
         <v>22</v>
-      </c>
-      <c r="K29" t="s">
-        <v>85</v>
-      </c>
-      <c r="L29" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>161</v>
+        <v>146</v>
       </c>
       <c r="B30" t="s">
         <v>15</v>
@@ -2497,36 +2511,33 @@
         <v>33</v>
       </c>
       <c r="E30" s="1">
-        <v>44821</v>
+        <v>44817</v>
       </c>
       <c r="F30" t="s">
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="G30" t="s">
-        <v>86</v>
+        <v>68</v>
       </c>
       <c r="H30" t="s">
-        <v>87</v>
+        <v>69</v>
       </c>
       <c r="I30" t="s">
-        <v>88</v>
+        <v>70</v>
       </c>
       <c r="J30" t="s">
         <v>22</v>
       </c>
-      <c r="K30" t="s">
-        <v>89</v>
-      </c>
       <c r="L30" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>161</v>
+        <v>146</v>
       </c>
       <c r="B31" t="s">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="C31" t="s">
         <v>16</v>
@@ -2535,68 +2546,59 @@
         <v>33</v>
       </c>
       <c r="E31" s="1">
-        <v>44822</v>
+        <v>44818</v>
       </c>
       <c r="F31" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="G31" t="s">
-        <v>90</v>
+        <v>24</v>
       </c>
       <c r="H31" t="s">
-        <v>91</v>
+        <v>40</v>
       </c>
       <c r="I31" t="s">
-        <v>92</v>
+        <v>41</v>
       </c>
       <c r="J31" t="s">
-        <v>93</v>
-      </c>
-      <c r="K31" t="s">
-        <v>94</v>
-      </c>
-      <c r="L31" t="s">
-        <v>49</v>
+        <v>22</v>
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>161</v>
+        <v>146</v>
       </c>
       <c r="B32" t="s">
-        <v>50</v>
+        <v>15</v>
       </c>
       <c r="C32" t="s">
         <v>16</v>
       </c>
       <c r="D32" t="s">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="E32" s="1">
-        <v>44823</v>
+        <v>44818</v>
       </c>
       <c r="F32" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="G32" t="s">
-        <v>51</v>
+        <v>174</v>
       </c>
       <c r="H32" t="s">
-        <v>95</v>
+        <v>175</v>
+      </c>
+      <c r="I32" t="s">
+        <v>176</v>
       </c>
       <c r="J32" t="s">
-        <v>53</v>
-      </c>
-      <c r="K32" t="s">
-        <v>54</v>
-      </c>
-      <c r="L32" t="s">
-        <v>49</v>
+        <v>22</v>
       </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>161</v>
+        <v>146</v>
       </c>
       <c r="B33" t="s">
         <v>15</v>
@@ -2608,27 +2610,30 @@
         <v>33</v>
       </c>
       <c r="E33" s="1">
-        <v>44825</v>
+        <v>44818</v>
       </c>
       <c r="F33" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="G33" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="H33" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="I33" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="J33" t="s">
         <v>22</v>
+      </c>
+      <c r="L33" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>161</v>
+        <v>146</v>
       </c>
       <c r="B34" t="s">
         <v>15</v>
@@ -2637,36 +2642,33 @@
         <v>16</v>
       </c>
       <c r="D34" t="s">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="E34" s="1">
-        <v>44826</v>
+        <v>44819</v>
       </c>
       <c r="F34" t="s">
         <v>27</v>
       </c>
       <c r="G34" t="s">
-        <v>96</v>
+        <v>28</v>
       </c>
       <c r="H34" t="s">
-        <v>97</v>
+        <v>29</v>
       </c>
       <c r="I34" t="s">
-        <v>98</v>
+        <v>30</v>
       </c>
       <c r="J34" t="s">
         <v>22</v>
-      </c>
-      <c r="L34" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>161</v>
+        <v>146</v>
       </c>
       <c r="B35" t="s">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="C35" t="s">
         <v>16</v>
@@ -2675,68 +2677,62 @@
         <v>33</v>
       </c>
       <c r="E35" s="1">
-        <v>44826</v>
+        <v>44819</v>
       </c>
       <c r="F35" t="s">
         <v>27</v>
       </c>
       <c r="G35" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="H35" t="s">
-        <v>99</v>
+        <v>42</v>
       </c>
       <c r="I35" t="s">
-        <v>100</v>
+        <v>41</v>
       </c>
       <c r="J35" t="s">
         <v>22</v>
-      </c>
-      <c r="L35" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>161</v>
+        <v>146</v>
       </c>
       <c r="B36" t="s">
         <v>15</v>
       </c>
       <c r="C36" t="s">
-        <v>101</v>
+        <v>16</v>
       </c>
       <c r="D36" t="s">
         <v>33</v>
       </c>
       <c r="E36" s="1">
-        <v>44828</v>
+        <v>44819</v>
       </c>
       <c r="F36" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="G36" t="s">
-        <v>102</v>
+        <v>49</v>
       </c>
       <c r="H36" t="s">
-        <v>103</v>
+        <v>74</v>
       </c>
       <c r="I36" t="s">
-        <v>104</v>
+        <v>75</v>
       </c>
       <c r="J36" t="s">
-        <v>105</v>
-      </c>
-      <c r="K36" t="s">
-        <v>106</v>
+        <v>22</v>
       </c>
       <c r="L36" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>161</v>
+        <v>146</v>
       </c>
       <c r="B37" t="s">
         <v>15</v>
@@ -2748,644 +2744,572 @@
         <v>33</v>
       </c>
       <c r="E37" s="1">
-        <v>44833</v>
+        <v>44819</v>
       </c>
       <c r="F37" t="s">
         <v>27</v>
       </c>
       <c r="G37" t="s">
-        <v>75</v>
+        <v>180</v>
       </c>
       <c r="H37" t="s">
-        <v>107</v>
+        <v>181</v>
       </c>
       <c r="I37" t="s">
-        <v>108</v>
+        <v>182</v>
       </c>
       <c r="J37" t="s">
         <v>22</v>
-      </c>
-      <c r="L37" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>162</v>
+        <v>146</v>
       </c>
       <c r="B38" t="s">
-        <v>109</v>
+        <v>15</v>
       </c>
       <c r="C38" t="s">
-        <v>171</v>
+        <v>16</v>
       </c>
       <c r="D38" t="s">
-        <v>185</v>
+        <v>33</v>
       </c>
       <c r="E38" s="1">
-        <v>44810</v>
+        <v>44819</v>
       </c>
       <c r="F38" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="G38" t="s">
-        <v>110</v>
+        <v>71</v>
       </c>
       <c r="H38" t="s">
-        <v>111</v>
+        <v>76</v>
       </c>
       <c r="I38" t="s">
-        <v>112</v>
+        <v>77</v>
       </c>
       <c r="J38" t="s">
-        <v>113</v>
+        <v>22</v>
       </c>
       <c r="K38" t="s">
-        <v>114</v>
+        <v>78</v>
       </c>
       <c r="L38" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>162</v>
+        <v>146</v>
       </c>
       <c r="B39" t="s">
-        <v>109</v>
+        <v>15</v>
       </c>
       <c r="C39" t="s">
-        <v>101</v>
+        <v>16</v>
       </c>
       <c r="D39" t="s">
         <v>33</v>
       </c>
       <c r="E39" s="1">
-        <v>44811</v>
+        <v>44820</v>
       </c>
       <c r="F39" t="s">
-        <v>63</v>
+        <v>36</v>
       </c>
       <c r="G39" t="s">
-        <v>115</v>
+        <v>46</v>
       </c>
       <c r="H39" t="s">
-        <v>116</v>
+        <v>183</v>
       </c>
       <c r="I39" t="s">
-        <v>117</v>
+        <v>47</v>
       </c>
       <c r="J39" t="s">
-        <v>118</v>
-      </c>
-      <c r="K39" t="s">
-        <v>119</v>
-      </c>
-      <c r="L39" t="s">
-        <v>49</v>
+        <v>22</v>
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>162</v>
+        <v>146</v>
       </c>
       <c r="B40" t="s">
-        <v>109</v>
+        <v>15</v>
       </c>
       <c r="C40" t="s">
-        <v>101</v>
+        <v>16</v>
       </c>
       <c r="D40" t="s">
         <v>33</v>
       </c>
       <c r="E40" s="1">
-        <v>44817</v>
+        <v>44820</v>
       </c>
       <c r="F40" t="s">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="G40" t="s">
-        <v>115</v>
+        <v>71</v>
       </c>
       <c r="H40" t="s">
-        <v>120</v>
+        <v>79</v>
       </c>
       <c r="I40" t="s">
-        <v>121</v>
+        <v>184</v>
       </c>
       <c r="J40" t="s">
-        <v>122</v>
+        <v>22</v>
       </c>
       <c r="K40" t="s">
-        <v>123</v>
+        <v>80</v>
       </c>
       <c r="L40" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>162</v>
+        <v>146</v>
       </c>
       <c r="B41" t="s">
-        <v>109</v>
+        <v>15</v>
       </c>
       <c r="C41" t="s">
-        <v>101</v>
+        <v>16</v>
       </c>
       <c r="D41" t="s">
         <v>33</v>
       </c>
       <c r="E41" s="1">
-        <v>44818</v>
+        <v>44820</v>
       </c>
       <c r="F41" t="s">
-        <v>63</v>
+        <v>36</v>
       </c>
       <c r="G41" t="s">
-        <v>124</v>
+        <v>71</v>
       </c>
       <c r="H41" t="s">
-        <v>116</v>
+        <v>167</v>
       </c>
       <c r="I41" t="s">
-        <v>117</v>
+        <v>168</v>
       </c>
       <c r="J41" t="s">
-        <v>125</v>
-      </c>
-      <c r="K41" t="s">
-        <v>119</v>
-      </c>
-      <c r="L41" t="s">
-        <v>49</v>
+        <v>22</v>
       </c>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>162</v>
+        <v>146</v>
       </c>
       <c r="B42" t="s">
-        <v>109</v>
+        <v>15</v>
       </c>
       <c r="C42" t="s">
-        <v>101</v>
+        <v>16</v>
       </c>
       <c r="D42" t="s">
         <v>33</v>
       </c>
       <c r="E42" s="1">
-        <v>44805</v>
+        <v>44821</v>
       </c>
       <c r="F42" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="G42" t="s">
-        <v>102</v>
+        <v>81</v>
       </c>
       <c r="H42" t="s">
-        <v>126</v>
+        <v>82</v>
       </c>
       <c r="I42" t="s">
-        <v>127</v>
+        <v>83</v>
       </c>
       <c r="J42" t="s">
-        <v>128</v>
+        <v>22</v>
       </c>
       <c r="K42" t="s">
-        <v>129</v>
+        <v>84</v>
       </c>
       <c r="L42" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>162</v>
+        <v>146</v>
       </c>
       <c r="B43" t="s">
-        <v>109</v>
+        <v>139</v>
       </c>
       <c r="C43" t="s">
-        <v>101</v>
+        <v>16</v>
       </c>
       <c r="D43" t="s">
         <v>33</v>
       </c>
       <c r="E43" s="1">
-        <v>44811</v>
+        <v>44823</v>
       </c>
       <c r="F43" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="G43" t="s">
-        <v>102</v>
+        <v>49</v>
       </c>
       <c r="H43" t="s">
-        <v>130</v>
+        <v>89</v>
       </c>
       <c r="I43" t="s">
-        <v>127</v>
+        <v>161</v>
       </c>
       <c r="J43" t="s">
-        <v>128</v>
+        <v>22</v>
       </c>
       <c r="K43" t="s">
-        <v>129</v>
-      </c>
-      <c r="L43" t="s">
-        <v>49</v>
+        <v>163</v>
       </c>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>162</v>
+        <v>146</v>
       </c>
       <c r="B44" t="s">
-        <v>109</v>
+        <v>15</v>
       </c>
       <c r="C44" t="s">
-        <v>101</v>
+        <v>16</v>
       </c>
       <c r="D44" t="s">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="E44" s="1">
-        <v>44817</v>
+        <v>44824</v>
       </c>
       <c r="F44" t="s">
         <v>23</v>
       </c>
       <c r="G44" t="s">
-        <v>90</v>
+        <v>24</v>
       </c>
       <c r="H44" t="s">
-        <v>131</v>
+        <v>25</v>
       </c>
       <c r="I44" t="s">
-        <v>127</v>
+        <v>26</v>
       </c>
       <c r="J44" t="s">
-        <v>128</v>
-      </c>
-      <c r="K44" t="s">
-        <v>129</v>
-      </c>
-      <c r="L44" t="s">
-        <v>49</v>
+        <v>22</v>
       </c>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>162</v>
+        <v>146</v>
       </c>
       <c r="B45" t="s">
-        <v>109</v>
+        <v>15</v>
       </c>
       <c r="C45" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="D45" t="s">
         <v>33</v>
       </c>
       <c r="E45" s="1">
-        <v>44820</v>
+        <v>44824</v>
       </c>
       <c r="F45" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="G45" t="s">
-        <v>102</v>
+        <v>185</v>
       </c>
       <c r="H45" t="s">
-        <v>132</v>
+        <v>186</v>
       </c>
       <c r="I45" t="s">
-        <v>127</v>
+        <v>187</v>
       </c>
       <c r="J45" t="s">
-        <v>128</v>
-      </c>
-      <c r="K45" t="s">
-        <v>129</v>
-      </c>
-      <c r="L45" t="s">
-        <v>49</v>
+        <v>22</v>
       </c>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>162</v>
+        <v>146</v>
       </c>
       <c r="B46" t="s">
-        <v>109</v>
+        <v>32</v>
       </c>
       <c r="C46" t="s">
-        <v>101</v>
+        <v>16</v>
       </c>
       <c r="D46" t="s">
         <v>33</v>
       </c>
       <c r="E46" s="1">
-        <v>44824</v>
+        <v>44825</v>
       </c>
       <c r="F46" t="s">
-        <v>23</v>
+        <v>59</v>
       </c>
       <c r="G46" t="s">
-        <v>102</v>
+        <v>24</v>
       </c>
       <c r="H46" t="s">
-        <v>133</v>
+        <v>43</v>
       </c>
       <c r="I46" t="s">
-        <v>127</v>
+        <v>44</v>
       </c>
       <c r="J46" t="s">
-        <v>128</v>
-      </c>
-      <c r="K46" t="s">
-        <v>129</v>
-      </c>
-      <c r="L46" t="s">
-        <v>49</v>
+        <v>22</v>
       </c>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>162</v>
+        <v>146</v>
       </c>
       <c r="B47" t="s">
-        <v>109</v>
+        <v>15</v>
       </c>
       <c r="C47" t="s">
-        <v>101</v>
+        <v>16</v>
       </c>
       <c r="D47" t="s">
         <v>33</v>
       </c>
       <c r="E47" s="1">
-        <v>44828</v>
+        <v>44825</v>
       </c>
       <c r="F47" t="s">
-        <v>38</v>
+        <v>59</v>
       </c>
       <c r="G47" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="H47" t="s">
-        <v>134</v>
+        <v>188</v>
       </c>
       <c r="I47" t="s">
-        <v>127</v>
+        <v>189</v>
       </c>
       <c r="J47" t="s">
-        <v>128</v>
-      </c>
-      <c r="K47" t="s">
-        <v>129</v>
-      </c>
-      <c r="L47" t="s">
-        <v>49</v>
+        <v>22</v>
       </c>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>162</v>
+        <v>146</v>
       </c>
       <c r="B48" t="s">
-        <v>109</v>
+        <v>15</v>
       </c>
       <c r="C48" t="s">
-        <v>101</v>
+        <v>16</v>
       </c>
       <c r="D48" t="s">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="E48" s="1">
-        <v>44819</v>
+        <v>44825</v>
       </c>
       <c r="F48" t="s">
-        <v>27</v>
+        <v>59</v>
       </c>
       <c r="G48" t="s">
-        <v>135</v>
+        <v>174</v>
       </c>
       <c r="H48" t="s">
-        <v>136</v>
+        <v>175</v>
       </c>
       <c r="I48" t="s">
-        <v>137</v>
+        <v>176</v>
       </c>
       <c r="J48" t="s">
-        <v>138</v>
-      </c>
-      <c r="K48" t="s">
-        <v>139</v>
-      </c>
-      <c r="L48" t="s">
-        <v>140</v>
+        <v>22</v>
       </c>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>162</v>
+        <v>146</v>
       </c>
       <c r="B49" t="s">
-        <v>109</v>
+        <v>15</v>
       </c>
       <c r="C49" t="s">
         <v>16</v>
       </c>
       <c r="D49" t="s">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="E49" s="1">
-        <v>44812</v>
+        <v>44825</v>
       </c>
       <c r="F49" t="s">
-        <v>27</v>
+        <v>59</v>
       </c>
       <c r="G49" t="s">
-        <v>141</v>
+        <v>60</v>
       </c>
       <c r="H49" t="s">
-        <v>142</v>
+        <v>61</v>
       </c>
       <c r="I49" t="s">
-        <v>143</v>
+        <v>62</v>
       </c>
       <c r="J49" t="s">
-        <v>144</v>
-      </c>
-      <c r="K49" t="s">
-        <v>145</v>
-      </c>
-      <c r="L49" t="s">
-        <v>49</v>
+        <v>22</v>
       </c>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>162</v>
+        <v>146</v>
       </c>
       <c r="B50" t="s">
-        <v>109</v>
+        <v>15</v>
       </c>
       <c r="C50" t="s">
         <v>16</v>
       </c>
       <c r="D50" t="s">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="E50" s="1">
-        <v>44813</v>
+        <v>44826</v>
       </c>
       <c r="F50" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="G50" t="s">
-        <v>56</v>
+        <v>71</v>
       </c>
       <c r="H50" t="s">
-        <v>146</v>
+        <v>90</v>
       </c>
       <c r="I50" t="s">
-        <v>147</v>
+        <v>91</v>
       </c>
       <c r="J50" t="s">
-        <v>170</v>
-      </c>
-      <c r="K50" t="s">
-        <v>148</v>
+        <v>22</v>
       </c>
       <c r="L50" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>162</v>
+        <v>146</v>
       </c>
       <c r="B51" t="s">
-        <v>149</v>
+        <v>15</v>
       </c>
       <c r="C51" t="s">
-        <v>101</v>
+        <v>16</v>
       </c>
       <c r="D51" t="s">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="E51" s="1">
-        <v>44806</v>
+        <v>44826</v>
       </c>
       <c r="F51" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="G51" t="s">
-        <v>150</v>
+        <v>28</v>
       </c>
       <c r="H51" t="s">
-        <v>151</v>
+        <v>29</v>
       </c>
       <c r="I51" t="s">
-        <v>152</v>
+        <v>30</v>
       </c>
       <c r="J51" t="s">
-        <v>176</v>
-      </c>
-      <c r="K51" t="s">
-        <v>153</v>
-      </c>
-      <c r="L51" t="s">
-        <v>49</v>
+        <v>22</v>
       </c>
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>162</v>
+        <v>146</v>
       </c>
       <c r="B52" t="s">
-        <v>154</v>
+        <v>32</v>
       </c>
       <c r="C52" t="s">
-        <v>101</v>
+        <v>16</v>
       </c>
       <c r="D52" t="s">
         <v>33</v>
       </c>
       <c r="E52" s="1">
-        <v>44817</v>
+        <v>44826</v>
       </c>
       <c r="F52" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="G52" t="s">
-        <v>150</v>
+        <v>24</v>
       </c>
       <c r="H52" t="s">
-        <v>155</v>
+        <v>45</v>
       </c>
       <c r="I52" t="s">
-        <v>152</v>
+        <v>44</v>
       </c>
       <c r="J52" t="s">
-        <v>177</v>
-      </c>
-      <c r="K52" t="s">
-        <v>156</v>
-      </c>
-      <c r="L52" t="s">
-        <v>49</v>
+        <v>22</v>
       </c>
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>162</v>
+        <v>146</v>
       </c>
       <c r="B53" t="s">
-        <v>154</v>
+        <v>15</v>
       </c>
       <c r="C53" t="s">
-        <v>101</v>
+        <v>16</v>
       </c>
       <c r="D53" t="s">
         <v>33</v>
       </c>
       <c r="E53" s="1">
-        <v>44824</v>
+        <v>44826</v>
       </c>
       <c r="F53" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="G53" t="s">
-        <v>157</v>
+        <v>19</v>
       </c>
       <c r="H53" t="s">
-        <v>158</v>
+        <v>92</v>
       </c>
       <c r="I53" t="s">
-        <v>152</v>
+        <v>93</v>
       </c>
       <c r="J53" t="s">
-        <v>176</v>
-      </c>
-      <c r="K53" t="s">
-        <v>156</v>
+        <v>22</v>
       </c>
       <c r="L53" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>162</v>
+        <v>146</v>
       </c>
       <c r="B54" t="s">
-        <v>154</v>
+        <v>15</v>
       </c>
       <c r="C54" t="s">
-        <v>101</v>
+        <v>16</v>
       </c>
       <c r="D54" t="s">
         <v>33</v>
@@ -3397,144 +3321,1267 @@
         <v>36</v>
       </c>
       <c r="G54" t="s">
-        <v>150</v>
+        <v>71</v>
       </c>
       <c r="H54" t="s">
-        <v>159</v>
+        <v>167</v>
       </c>
       <c r="I54" t="s">
-        <v>160</v>
+        <v>168</v>
       </c>
       <c r="J54" t="s">
-        <v>178</v>
-      </c>
-      <c r="K54" t="s">
-        <v>153</v>
-      </c>
-      <c r="L54" t="s">
-        <v>49</v>
+        <v>22</v>
       </c>
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>162</v>
+        <v>146</v>
       </c>
       <c r="B55" t="s">
-        <v>149</v>
+        <v>15</v>
       </c>
       <c r="C55" t="s">
-        <v>101</v>
+        <v>16</v>
       </c>
       <c r="D55" t="s">
         <v>33</v>
       </c>
       <c r="E55" s="1">
-        <v>44806</v>
+        <v>44827</v>
       </c>
       <c r="F55" t="s">
         <v>36</v>
       </c>
       <c r="G55" t="s">
-        <v>150</v>
+        <v>164</v>
       </c>
       <c r="H55" t="s">
-        <v>151</v>
+        <v>190</v>
       </c>
       <c r="I55" t="s">
-        <v>160</v>
+        <v>191</v>
       </c>
       <c r="J55" t="s">
-        <v>181</v>
-      </c>
-      <c r="K55" t="s">
-        <v>153</v>
-      </c>
-      <c r="L55" t="s">
-        <v>49</v>
+        <v>22</v>
       </c>
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>162</v>
+        <v>146</v>
       </c>
       <c r="B56" t="s">
-        <v>154</v>
+        <v>15</v>
       </c>
       <c r="C56" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="D56" t="s">
         <v>33</v>
       </c>
       <c r="E56" s="1">
-        <v>44826</v>
+        <v>44828</v>
       </c>
       <c r="F56" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="G56" t="s">
-        <v>157</v>
+        <v>95</v>
       </c>
       <c r="H56" t="s">
-        <v>158</v>
+        <v>96</v>
       </c>
       <c r="I56" t="s">
-        <v>160</v>
+        <v>97</v>
       </c>
       <c r="J56" t="s">
-        <v>179</v>
+        <v>22</v>
       </c>
       <c r="K56" t="s">
-        <v>156</v>
+        <v>98</v>
       </c>
       <c r="L56" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>162</v>
+        <v>146</v>
       </c>
       <c r="B57" t="s">
-        <v>154</v>
+        <v>15</v>
       </c>
       <c r="C57" t="s">
+        <v>16</v>
+      </c>
+      <c r="D57" t="s">
+        <v>33</v>
+      </c>
+      <c r="E57" s="1">
+        <v>44828</v>
+      </c>
+      <c r="F57" t="s">
+        <v>38</v>
+      </c>
+      <c r="G57" t="s">
+        <v>164</v>
+      </c>
+      <c r="H57" t="s">
+        <v>192</v>
+      </c>
+      <c r="I57" t="s">
+        <v>191</v>
+      </c>
+      <c r="J57" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>146</v>
+      </c>
+      <c r="B58" t="s">
+        <v>15</v>
+      </c>
+      <c r="C58" t="s">
+        <v>16</v>
+      </c>
+      <c r="D58" t="s">
+        <v>33</v>
+      </c>
+      <c r="E58" s="1">
+        <v>44829</v>
+      </c>
+      <c r="F58" t="s">
+        <v>51</v>
+      </c>
+      <c r="G58" t="s">
+        <v>85</v>
+      </c>
+      <c r="H58" t="s">
+        <v>86</v>
+      </c>
+      <c r="I58" t="s">
+        <v>87</v>
+      </c>
+      <c r="J58" t="s">
+        <v>22</v>
+      </c>
+      <c r="K58" t="s">
+        <v>88</v>
+      </c>
+      <c r="L58" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>146</v>
+      </c>
+      <c r="B59" t="s">
+        <v>15</v>
+      </c>
+      <c r="C59" t="s">
+        <v>16</v>
+      </c>
+      <c r="D59" t="s">
+        <v>17</v>
+      </c>
+      <c r="E59" s="1">
+        <v>44831</v>
+      </c>
+      <c r="F59" t="s">
+        <v>23</v>
+      </c>
+      <c r="G59" t="s">
+        <v>24</v>
+      </c>
+      <c r="H59" t="s">
+        <v>25</v>
+      </c>
+      <c r="I59" t="s">
+        <v>26</v>
+      </c>
+      <c r="J59" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>146</v>
+      </c>
+      <c r="B60" t="s">
+        <v>15</v>
+      </c>
+      <c r="C60" t="s">
+        <v>16</v>
+      </c>
+      <c r="D60" t="s">
+        <v>17</v>
+      </c>
+      <c r="E60" s="1">
+        <v>44832</v>
+      </c>
+      <c r="F60" t="s">
+        <v>59</v>
+      </c>
+      <c r="G60" t="s">
+        <v>174</v>
+      </c>
+      <c r="H60" t="s">
+        <v>175</v>
+      </c>
+      <c r="I60" t="s">
+        <v>176</v>
+      </c>
+      <c r="J60" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>146</v>
+      </c>
+      <c r="B61" t="s">
+        <v>15</v>
+      </c>
+      <c r="C61" t="s">
+        <v>16</v>
+      </c>
+      <c r="D61" t="s">
+        <v>17</v>
+      </c>
+      <c r="E61" s="1">
+        <v>44833</v>
+      </c>
+      <c r="F61" t="s">
+        <v>27</v>
+      </c>
+      <c r="G61" t="s">
+        <v>28</v>
+      </c>
+      <c r="H61" t="s">
+        <v>29</v>
+      </c>
+      <c r="I61" t="s">
+        <v>30</v>
+      </c>
+      <c r="J61" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>146</v>
+      </c>
+      <c r="B62" t="s">
+        <v>15</v>
+      </c>
+      <c r="C62" t="s">
+        <v>16</v>
+      </c>
+      <c r="D62" t="s">
+        <v>33</v>
+      </c>
+      <c r="E62" s="1">
+        <v>44833</v>
+      </c>
+      <c r="F62" t="s">
+        <v>27</v>
+      </c>
+      <c r="G62" t="s">
+        <v>180</v>
+      </c>
+      <c r="H62" t="s">
+        <v>181</v>
+      </c>
+      <c r="I62" t="s">
+        <v>182</v>
+      </c>
+      <c r="J62" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>146</v>
+      </c>
+      <c r="B63" t="s">
+        <v>15</v>
+      </c>
+      <c r="C63" t="s">
+        <v>16</v>
+      </c>
+      <c r="D63" t="s">
+        <v>33</v>
+      </c>
+      <c r="E63" s="1">
+        <v>44833</v>
+      </c>
+      <c r="F63" t="s">
+        <v>27</v>
+      </c>
+      <c r="G63" t="s">
+        <v>71</v>
+      </c>
+      <c r="H63" t="s">
+        <v>99</v>
+      </c>
+      <c r="I63" t="s">
+        <v>100</v>
+      </c>
+      <c r="J63" t="s">
+        <v>22</v>
+      </c>
+      <c r="L63" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>146</v>
+      </c>
+      <c r="B64" t="s">
+        <v>15</v>
+      </c>
+      <c r="C64" t="s">
+        <v>16</v>
+      </c>
+      <c r="D64" t="s">
+        <v>33</v>
+      </c>
+      <c r="E64" s="1">
+        <v>44834</v>
+      </c>
+      <c r="F64" t="s">
+        <v>36</v>
+      </c>
+      <c r="G64" t="s">
+        <v>71</v>
+      </c>
+      <c r="H64" t="s">
+        <v>167</v>
+      </c>
+      <c r="I64" t="s">
+        <v>168</v>
+      </c>
+      <c r="J64" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>146</v>
+      </c>
+      <c r="B65" t="s">
+        <v>15</v>
+      </c>
+      <c r="C65" t="s">
+        <v>16</v>
+      </c>
+      <c r="D65" t="s">
+        <v>33</v>
+      </c>
+      <c r="E65" s="1">
+        <v>44834</v>
+      </c>
+      <c r="F65" t="s">
+        <v>36</v>
+      </c>
+      <c r="G65" t="s">
+        <v>193</v>
+      </c>
+      <c r="H65" t="s">
+        <v>194</v>
+      </c>
+      <c r="I65" t="s">
+        <v>195</v>
+      </c>
+      <c r="J65" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>147</v>
+      </c>
+      <c r="B66" t="s">
         <v>101</v>
       </c>
-      <c r="D57" t="s">
-        <v>33</v>
-      </c>
-      <c r="E57" s="1">
+      <c r="C66" t="s">
+        <v>16</v>
+      </c>
+      <c r="D66" t="s">
+        <v>17</v>
+      </c>
+      <c r="E66" s="1">
+        <v>44812</v>
+      </c>
+      <c r="F66" t="s">
+        <v>27</v>
+      </c>
+      <c r="G66" t="s">
+        <v>126</v>
+      </c>
+      <c r="H66" t="s">
+        <v>127</v>
+      </c>
+      <c r="I66" t="s">
+        <v>128</v>
+      </c>
+      <c r="J66" t="s">
+        <v>129</v>
+      </c>
+      <c r="K66" t="s">
+        <v>130</v>
+      </c>
+      <c r="L66" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>147</v>
+      </c>
+      <c r="B67" t="s">
+        <v>101</v>
+      </c>
+      <c r="C67" t="s">
+        <v>16</v>
+      </c>
+      <c r="D67" t="s">
+        <v>33</v>
+      </c>
+      <c r="E67" s="1">
+        <v>44820</v>
+      </c>
+      <c r="F67" t="s">
+        <v>36</v>
+      </c>
+      <c r="G67" t="s">
+        <v>196</v>
+      </c>
+      <c r="H67" t="s">
+        <v>197</v>
+      </c>
+      <c r="I67" t="s">
+        <v>198</v>
+      </c>
+      <c r="J67" t="s">
+        <v>199</v>
+      </c>
+      <c r="K67" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>147</v>
+      </c>
+      <c r="B68" t="s">
+        <v>101</v>
+      </c>
+      <c r="C68" t="s">
+        <v>16</v>
+      </c>
+      <c r="D68" t="s">
+        <v>33</v>
+      </c>
+      <c r="E68" s="1">
+        <v>44834</v>
+      </c>
+      <c r="F68" t="s">
+        <v>36</v>
+      </c>
+      <c r="G68" t="s">
+        <v>196</v>
+      </c>
+      <c r="H68" t="s">
+        <v>197</v>
+      </c>
+      <c r="I68" t="s">
+        <v>198</v>
+      </c>
+      <c r="J68" t="s">
+        <v>199</v>
+      </c>
+      <c r="K68" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>147</v>
+      </c>
+      <c r="B69" t="s">
+        <v>101</v>
+      </c>
+      <c r="C69" t="s">
+        <v>16</v>
+      </c>
+      <c r="D69" t="s">
+        <v>33</v>
+      </c>
+      <c r="E69" s="1">
+        <v>44822</v>
+      </c>
+      <c r="F69" t="s">
+        <v>51</v>
+      </c>
+      <c r="G69" t="s">
+        <v>81</v>
+      </c>
+      <c r="H69" t="s">
+        <v>201</v>
+      </c>
+      <c r="I69" t="s">
+        <v>202</v>
+      </c>
+      <c r="J69" t="s">
+        <v>199</v>
+      </c>
+      <c r="K69" t="s">
+        <v>203</v>
+      </c>
+      <c r="L69" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="70" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>147</v>
+      </c>
+      <c r="B70" t="s">
+        <v>101</v>
+      </c>
+      <c r="C70" t="s">
+        <v>16</v>
+      </c>
+      <c r="D70" t="s">
+        <v>33</v>
+      </c>
+      <c r="E70" s="1">
         <v>44827</v>
       </c>
-      <c r="F57" t="s">
+      <c r="F70" t="s">
         <v>36</v>
       </c>
-      <c r="G57" t="s">
-        <v>150</v>
-      </c>
-      <c r="H57" t="s">
-        <v>159</v>
-      </c>
-      <c r="I57" t="s">
-        <v>160</v>
-      </c>
-      <c r="J57" t="s">
-        <v>180</v>
-      </c>
-      <c r="K57" t="s">
-        <v>153</v>
-      </c>
-      <c r="L57" t="s">
-        <v>49</v>
+      <c r="G70" t="s">
+        <v>174</v>
+      </c>
+      <c r="H70" t="s">
+        <v>204</v>
+      </c>
+      <c r="I70" t="s">
+        <v>195</v>
+      </c>
+      <c r="J70" t="s">
+        <v>199</v>
+      </c>
+      <c r="K70" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="71" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>147</v>
+      </c>
+      <c r="B71" t="s">
+        <v>134</v>
+      </c>
+      <c r="C71" t="s">
+        <v>94</v>
+      </c>
+      <c r="D71" t="s">
+        <v>33</v>
+      </c>
+      <c r="E71" s="1">
+        <v>44806</v>
+      </c>
+      <c r="F71" t="s">
+        <v>36</v>
+      </c>
+      <c r="G71" t="s">
+        <v>135</v>
+      </c>
+      <c r="H71" t="s">
+        <v>136</v>
+      </c>
+      <c r="I71" t="s">
+        <v>137</v>
+      </c>
+      <c r="J71" t="s">
+        <v>206</v>
+      </c>
+      <c r="K71" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="72" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>147</v>
+      </c>
+      <c r="B72" t="s">
+        <v>101</v>
+      </c>
+      <c r="C72" t="s">
+        <v>94</v>
+      </c>
+      <c r="D72" t="s">
+        <v>17</v>
+      </c>
+      <c r="E72" s="1">
+        <v>44810</v>
+      </c>
+      <c r="F72" t="s">
+        <v>23</v>
+      </c>
+      <c r="G72" t="s">
+        <v>102</v>
+      </c>
+      <c r="H72" t="s">
+        <v>103</v>
+      </c>
+      <c r="I72" t="s">
+        <v>104</v>
+      </c>
+      <c r="J72" t="s">
+        <v>105</v>
+      </c>
+      <c r="K72" t="s">
+        <v>106</v>
+      </c>
+      <c r="L72" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="73" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>147</v>
+      </c>
+      <c r="B73" t="s">
+        <v>101</v>
+      </c>
+      <c r="C73" t="s">
+        <v>94</v>
+      </c>
+      <c r="D73" t="s">
+        <v>33</v>
+      </c>
+      <c r="E73" s="1">
+        <v>44811</v>
+      </c>
+      <c r="F73" t="s">
+        <v>59</v>
+      </c>
+      <c r="G73" t="s">
+        <v>107</v>
+      </c>
+      <c r="H73" t="s">
+        <v>207</v>
+      </c>
+      <c r="I73" t="s">
+        <v>108</v>
+      </c>
+      <c r="J73" t="s">
+        <v>109</v>
+      </c>
+      <c r="K73" t="s">
+        <v>110</v>
+      </c>
+      <c r="L73" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="74" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>147</v>
+      </c>
+      <c r="B74" t="s">
+        <v>139</v>
+      </c>
+      <c r="C74" t="s">
+        <v>94</v>
+      </c>
+      <c r="D74" t="s">
+        <v>33</v>
+      </c>
+      <c r="E74" s="1">
+        <v>44817</v>
+      </c>
+      <c r="F74" t="s">
+        <v>23</v>
+      </c>
+      <c r="G74" t="s">
+        <v>135</v>
+      </c>
+      <c r="H74" t="s">
+        <v>140</v>
+      </c>
+      <c r="I74" t="s">
+        <v>137</v>
+      </c>
+      <c r="J74" t="s">
+        <v>206</v>
+      </c>
+      <c r="K74" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="75" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>147</v>
+      </c>
+      <c r="B75" t="s">
+        <v>139</v>
+      </c>
+      <c r="C75" t="s">
+        <v>94</v>
+      </c>
+      <c r="D75" t="s">
+        <v>33</v>
+      </c>
+      <c r="E75" s="1">
+        <v>44824</v>
+      </c>
+      <c r="F75" t="s">
+        <v>23</v>
+      </c>
+      <c r="G75" t="s">
+        <v>142</v>
+      </c>
+      <c r="H75" t="s">
+        <v>143</v>
+      </c>
+      <c r="I75" t="s">
+        <v>137</v>
+      </c>
+      <c r="J75" t="s">
+        <v>206</v>
+      </c>
+      <c r="K75" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="76" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>147</v>
+      </c>
+      <c r="B76" t="s">
+        <v>139</v>
+      </c>
+      <c r="C76" t="s">
+        <v>94</v>
+      </c>
+      <c r="D76" t="s">
+        <v>33</v>
+      </c>
+      <c r="E76" s="1">
+        <v>44827</v>
+      </c>
+      <c r="F76" t="s">
+        <v>36</v>
+      </c>
+      <c r="G76" t="s">
+        <v>135</v>
+      </c>
+      <c r="H76" t="s">
+        <v>144</v>
+      </c>
+      <c r="I76" t="s">
+        <v>137</v>
+      </c>
+      <c r="J76" t="s">
+        <v>206</v>
+      </c>
+      <c r="K76" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="77" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>147</v>
+      </c>
+      <c r="B77" t="s">
+        <v>134</v>
+      </c>
+      <c r="C77" t="s">
+        <v>94</v>
+      </c>
+      <c r="D77" t="s">
+        <v>33</v>
+      </c>
+      <c r="E77" s="1">
+        <v>44806</v>
+      </c>
+      <c r="F77" t="s">
+        <v>36</v>
+      </c>
+      <c r="G77" t="s">
+        <v>135</v>
+      </c>
+      <c r="H77" t="s">
+        <v>136</v>
+      </c>
+      <c r="I77" t="s">
+        <v>145</v>
+      </c>
+      <c r="J77" t="s">
+        <v>111</v>
+      </c>
+      <c r="K77" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="78" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>147</v>
+      </c>
+      <c r="B78" t="s">
+        <v>101</v>
+      </c>
+      <c r="C78" t="s">
+        <v>94</v>
+      </c>
+      <c r="D78" t="s">
+        <v>17</v>
+      </c>
+      <c r="E78" s="1">
+        <v>44813</v>
+      </c>
+      <c r="F78" t="s">
+        <v>36</v>
+      </c>
+      <c r="G78" t="s">
+        <v>52</v>
+      </c>
+      <c r="H78" t="s">
+        <v>131</v>
+      </c>
+      <c r="I78" t="s">
+        <v>132</v>
+      </c>
+      <c r="J78" t="s">
+        <v>111</v>
+      </c>
+      <c r="K78" t="s">
+        <v>133</v>
+      </c>
+      <c r="L78" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="79" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>147</v>
+      </c>
+      <c r="B79" t="s">
+        <v>101</v>
+      </c>
+      <c r="C79" t="s">
+        <v>94</v>
+      </c>
+      <c r="D79" t="s">
+        <v>33</v>
+      </c>
+      <c r="E79" s="1">
+        <v>44818</v>
+      </c>
+      <c r="F79" t="s">
+        <v>59</v>
+      </c>
+      <c r="G79" t="s">
+        <v>112</v>
+      </c>
+      <c r="H79" t="s">
+        <v>207</v>
+      </c>
+      <c r="I79" t="s">
+        <v>108</v>
+      </c>
+      <c r="J79" t="s">
+        <v>113</v>
+      </c>
+      <c r="K79" t="s">
+        <v>110</v>
+      </c>
+      <c r="L79" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="80" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>147</v>
+      </c>
+      <c r="B80" t="s">
+        <v>101</v>
+      </c>
+      <c r="C80" t="s">
+        <v>94</v>
+      </c>
+      <c r="D80" t="s">
+        <v>33</v>
+      </c>
+      <c r="E80" s="1">
+        <v>44822</v>
+      </c>
+      <c r="F80" t="s">
+        <v>51</v>
+      </c>
+      <c r="G80" t="s">
+        <v>208</v>
+      </c>
+      <c r="H80" t="s">
+        <v>209</v>
+      </c>
+      <c r="I80" t="s">
+        <v>87</v>
+      </c>
+      <c r="J80" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="81" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>147</v>
+      </c>
+      <c r="B81" t="s">
+        <v>139</v>
+      </c>
+      <c r="C81" t="s">
+        <v>94</v>
+      </c>
+      <c r="D81" t="s">
+        <v>33</v>
+      </c>
+      <c r="E81" s="1">
+        <v>44826</v>
+      </c>
+      <c r="F81" t="s">
+        <v>27</v>
+      </c>
+      <c r="G81" t="s">
+        <v>142</v>
+      </c>
+      <c r="H81" t="s">
+        <v>143</v>
+      </c>
+      <c r="I81" t="s">
+        <v>145</v>
+      </c>
+      <c r="J81" t="s">
+        <v>210</v>
+      </c>
+      <c r="K81" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="82" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>147</v>
+      </c>
+      <c r="B82" t="s">
+        <v>139</v>
+      </c>
+      <c r="C82" t="s">
+        <v>94</v>
+      </c>
+      <c r="D82" t="s">
+        <v>33</v>
+      </c>
+      <c r="E82" s="1">
+        <v>44827</v>
+      </c>
+      <c r="F82" t="s">
+        <v>36</v>
+      </c>
+      <c r="G82" t="s">
+        <v>135</v>
+      </c>
+      <c r="H82" t="s">
+        <v>144</v>
+      </c>
+      <c r="I82" t="s">
+        <v>145</v>
+      </c>
+      <c r="J82" t="s">
+        <v>210</v>
+      </c>
+      <c r="K82" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="83" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>147</v>
+      </c>
+      <c r="B83" t="s">
+        <v>101</v>
+      </c>
+      <c r="C83" t="s">
+        <v>94</v>
+      </c>
+      <c r="D83" t="s">
+        <v>33</v>
+      </c>
+      <c r="E83" s="1">
+        <v>44805</v>
+      </c>
+      <c r="F83" t="s">
+        <v>27</v>
+      </c>
+      <c r="G83" t="s">
+        <v>95</v>
+      </c>
+      <c r="H83" t="s">
+        <v>114</v>
+      </c>
+      <c r="I83" t="s">
+        <v>115</v>
+      </c>
+      <c r="J83" t="s">
+        <v>211</v>
+      </c>
+      <c r="K83" t="s">
+        <v>116</v>
+      </c>
+      <c r="L83" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="84" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>147</v>
+      </c>
+      <c r="B84" t="s">
+        <v>101</v>
+      </c>
+      <c r="C84" t="s">
+        <v>94</v>
+      </c>
+      <c r="D84" t="s">
+        <v>33</v>
+      </c>
+      <c r="E84" s="1">
+        <v>44811</v>
+      </c>
+      <c r="F84" t="s">
+        <v>59</v>
+      </c>
+      <c r="G84" t="s">
+        <v>95</v>
+      </c>
+      <c r="H84" t="s">
+        <v>117</v>
+      </c>
+      <c r="I84" t="s">
+        <v>115</v>
+      </c>
+      <c r="J84" t="s">
+        <v>211</v>
+      </c>
+      <c r="K84" t="s">
+        <v>116</v>
+      </c>
+      <c r="L84" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="85" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>147</v>
+      </c>
+      <c r="B85" t="s">
+        <v>101</v>
+      </c>
+      <c r="C85" t="s">
+        <v>94</v>
+      </c>
+      <c r="D85" t="s">
+        <v>33</v>
+      </c>
+      <c r="E85" s="1">
+        <v>44817</v>
+      </c>
+      <c r="F85" t="s">
+        <v>23</v>
+      </c>
+      <c r="G85" t="s">
+        <v>85</v>
+      </c>
+      <c r="H85" t="s">
+        <v>118</v>
+      </c>
+      <c r="I85" t="s">
+        <v>115</v>
+      </c>
+      <c r="J85" t="s">
+        <v>211</v>
+      </c>
+      <c r="K85" t="s">
+        <v>116</v>
+      </c>
+      <c r="L85" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="86" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>147</v>
+      </c>
+      <c r="B86" t="s">
+        <v>101</v>
+      </c>
+      <c r="C86" t="s">
+        <v>94</v>
+      </c>
+      <c r="D86" t="s">
+        <v>33</v>
+      </c>
+      <c r="E86" s="1">
+        <v>44819</v>
+      </c>
+      <c r="F86" t="s">
+        <v>27</v>
+      </c>
+      <c r="G86" t="s">
+        <v>122</v>
+      </c>
+      <c r="H86" t="s">
+        <v>123</v>
+      </c>
+      <c r="I86" t="s">
+        <v>124</v>
+      </c>
+      <c r="J86" t="s">
+        <v>212</v>
+      </c>
+      <c r="K86" t="s">
+        <v>125</v>
+      </c>
+      <c r="L86" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="87" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>147</v>
+      </c>
+      <c r="B87" t="s">
+        <v>101</v>
+      </c>
+      <c r="C87" t="s">
+        <v>94</v>
+      </c>
+      <c r="D87" t="s">
+        <v>33</v>
+      </c>
+      <c r="E87" s="1">
+        <v>44820</v>
+      </c>
+      <c r="F87" t="s">
+        <v>36</v>
+      </c>
+      <c r="G87" t="s">
+        <v>95</v>
+      </c>
+      <c r="H87" t="s">
+        <v>119</v>
+      </c>
+      <c r="I87" t="s">
+        <v>115</v>
+      </c>
+      <c r="J87" t="s">
+        <v>211</v>
+      </c>
+      <c r="K87" t="s">
+        <v>116</v>
+      </c>
+      <c r="L87" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="88" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>147</v>
+      </c>
+      <c r="B88" t="s">
+        <v>101</v>
+      </c>
+      <c r="C88" t="s">
+        <v>94</v>
+      </c>
+      <c r="D88" t="s">
+        <v>33</v>
+      </c>
+      <c r="E88" s="1">
+        <v>44824</v>
+      </c>
+      <c r="F88" t="s">
+        <v>23</v>
+      </c>
+      <c r="G88" t="s">
+        <v>95</v>
+      </c>
+      <c r="H88" t="s">
+        <v>120</v>
+      </c>
+      <c r="I88" t="s">
+        <v>115</v>
+      </c>
+      <c r="J88" t="s">
+        <v>211</v>
+      </c>
+      <c r="K88" t="s">
+        <v>116</v>
+      </c>
+      <c r="L88" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="89" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>147</v>
+      </c>
+      <c r="B89" t="s">
+        <v>101</v>
+      </c>
+      <c r="C89" t="s">
+        <v>94</v>
+      </c>
+      <c r="D89" t="s">
+        <v>33</v>
+      </c>
+      <c r="E89" s="1">
+        <v>44828</v>
+      </c>
+      <c r="F89" t="s">
+        <v>38</v>
+      </c>
+      <c r="G89" t="s">
+        <v>85</v>
+      </c>
+      <c r="H89" t="s">
+        <v>121</v>
+      </c>
+      <c r="I89" t="s">
+        <v>115</v>
+      </c>
+      <c r="J89" t="s">
+        <v>211</v>
+      </c>
+      <c r="K89" t="s">
+        <v>116</v>
+      </c>
+      <c r="L89" t="s">
+        <v>48</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="K18" r:id="rId1"/>
+    <hyperlink ref="K18" r:id="rId1" display="https://m.facebook.com/groups/393653484462016"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="0" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="1200" r:id="rId2"/>
 </worksheet>
 </file>
--- a/file/learn.xlsx
+++ b/file/learn.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="847" uniqueCount="213">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="848" uniqueCount="216">
   <si>
     <t>每月固定課程</t>
   </si>
@@ -459,218 +459,232 @@
     <t>台中悠樂芳</t>
   </si>
   <si>
-    <t>growing</t>
-  </si>
-  <si>
-    <t>sharing</t>
+    <t>Title</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Teacher</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Url</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Check</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lesson</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>classDate</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>className</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>class</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>悠樂芳領袖營</t>
+  </si>
+  <si>
+    <t>悠樂芳領袖營FB線上直播</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/groups/393653484462016/?ref=share</t>
+  </si>
+  <si>
+    <t>21:30-22:30</t>
+  </si>
+  <si>
+    <t>精油知識家-精油小百科</t>
+  </si>
+  <si>
+    <t>賴鏡旭</t>
+  </si>
+  <si>
+    <t>行善佈施迴向系列</t>
+  </si>
+  <si>
+    <t>宋承鴻</t>
+  </si>
+  <si>
+    <t>10:00-14:00</t>
+  </si>
+  <si>
+    <t>喵喵團隊中秋聚</t>
+  </si>
+  <si>
+    <t>14:30-15:30</t>
+  </si>
+  <si>
+    <t>精油組的身心靈應用</t>
+  </si>
+  <si>
+    <t>美慧、喵喵</t>
+  </si>
+  <si>
+    <t>19:00-21:00</t>
+  </si>
+  <si>
+    <t>生命靈數與八字</t>
+  </si>
+  <si>
+    <t>凱文老師</t>
+  </si>
+  <si>
+    <t>10:30-12:30</t>
+  </si>
+  <si>
+    <t>你可以做的各種霜</t>
+  </si>
+  <si>
+    <t>玲甄、育璟</t>
+  </si>
+  <si>
+    <t>19:30-21:00</t>
+  </si>
+  <si>
+    <t>身體訊息∞愛的流動</t>
+  </si>
+  <si>
+    <t>國姐</t>
+  </si>
+  <si>
+    <t>皮拉提斯瑜珈</t>
+  </si>
+  <si>
+    <t>徐琬淳Zoe，王建震Neo</t>
+  </si>
+  <si>
+    <t>10:00-12:00</t>
+  </si>
+  <si>
+    <t>你可以做的各種膏</t>
+  </si>
+  <si>
+    <t>貓教官</t>
+  </si>
+  <si>
+    <t>認識種子法則</t>
+  </si>
+  <si>
+    <t>Kammy、喵喵</t>
+  </si>
+  <si>
+    <t>芳療按摩課程-三伏貼精油背部按摩手法</t>
+  </si>
+  <si>
+    <t>張玉敬</t>
+  </si>
+  <si>
+    <t>芳療按摩課程-頭部芳香舒壓按摩手法</t>
+  </si>
+  <si>
+    <t>20:00-21:30</t>
+  </si>
+  <si>
+    <t>用精油啟動你的DISC</t>
+  </si>
+  <si>
+    <t>蔡文山、陳小紅</t>
+  </si>
+  <si>
+    <t>19:30-22:00</t>
+  </si>
+  <si>
+    <t>平衡飲食班(2堂課皆須完成)</t>
+  </si>
+  <si>
+    <t>雪人老師</t>
+  </si>
+  <si>
+    <t>00zoom</t>
+  </si>
+  <si>
+    <t>https://www.surveycake.com/s/q3W26</t>
+  </si>
+  <si>
+    <t>靈數塔羅占卜快速上手</t>
+  </si>
+  <si>
+    <t>貝瑪多傑/satako</t>
+  </si>
+  <si>
+    <t>https://reurl.cc/yrxd8E</t>
+  </si>
+  <si>
+    <t>個人DISC檢測與解析</t>
+  </si>
+  <si>
+    <t>https://forms.gle/ktSc3pUPy72Yczcx5</t>
+  </si>
+  <si>
+    <t>01台北</t>
+  </si>
+  <si>
+    <t>經典燭臺</t>
+  </si>
+  <si>
+    <t>10:30-12:00</t>
+  </si>
+  <si>
+    <t>牌卡療心手作擴香石</t>
+  </si>
+  <si>
+    <t>02台中</t>
+  </si>
+  <si>
+    <t>04台南北區</t>
+  </si>
+  <si>
+    <t>04台南市新市區富安二街141號「消防局正對面」</t>
   </si>
   <si>
     <t>classTime</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>Title</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>Teacher</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>Url</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>Check</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>Lesson</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>classDate</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>className</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>growing</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
+    <t>sharing</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>實體現場</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>classType</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
     <t>Address</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>classType</t>
+    <t>孕產親子</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>採預約制</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>每月固定課程</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>classDay</t>
     <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>class</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>悠樂芳領袖營</t>
-  </si>
-  <si>
-    <t>悠樂芳領袖營FB線上直播</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/groups/393653484462016/?ref=share</t>
-  </si>
-  <si>
-    <t>21:30-22:30</t>
-  </si>
-  <si>
-    <t>精油知識家-精油小百科</t>
-  </si>
-  <si>
-    <t>賴鏡旭</t>
-  </si>
-  <si>
-    <t>行善佈施迴向系列</t>
-  </si>
-  <si>
-    <t>宋承鴻</t>
-  </si>
-  <si>
-    <t>10:00-14:00</t>
-  </si>
-  <si>
-    <t>喵喵團隊中秋聚</t>
-  </si>
-  <si>
-    <t>14:30-15:30</t>
-  </si>
-  <si>
-    <t>精油組的身心靈應用</t>
-  </si>
-  <si>
-    <t>美慧、喵喵</t>
-  </si>
-  <si>
-    <t>19:00-21:00</t>
-  </si>
-  <si>
-    <t>生命靈數與八字</t>
-  </si>
-  <si>
-    <t>凱文老師</t>
-  </si>
-  <si>
-    <t>10:30-12:30</t>
-  </si>
-  <si>
-    <t>你可以做的各種霜</t>
-  </si>
-  <si>
-    <t>玲甄、育璟</t>
-  </si>
-  <si>
-    <t>19:30-21:00</t>
-  </si>
-  <si>
-    <t>身體訊息∞愛的流動</t>
-  </si>
-  <si>
-    <t>國姐</t>
-  </si>
-  <si>
-    <t>皮拉提斯瑜珈</t>
-  </si>
-  <si>
-    <t>徐琬淳Zoe，王建震Neo</t>
-  </si>
-  <si>
-    <t>10:00-12:00</t>
-  </si>
-  <si>
-    <t>你可以做的各種膏</t>
-  </si>
-  <si>
-    <t>貓教官</t>
-  </si>
-  <si>
-    <t>認識種子法則</t>
-  </si>
-  <si>
-    <t>Kammy、喵喵</t>
-  </si>
-  <si>
-    <t>芳療按摩課程-三伏貼精油背部按摩手法</t>
-  </si>
-  <si>
-    <t>張玉敬</t>
-  </si>
-  <si>
-    <t>芳療按摩課程-頭部芳香舒壓按摩手法</t>
-  </si>
-  <si>
-    <t>20:00-21:30</t>
-  </si>
-  <si>
-    <t>用精油啟動你的DISC</t>
-  </si>
-  <si>
-    <t>蔡文山、陳小紅</t>
-  </si>
-  <si>
-    <t>19:30-22:00</t>
-  </si>
-  <si>
-    <t>平衡飲食班(2堂課皆須完成)</t>
-  </si>
-  <si>
-    <t>雪人老師</t>
-  </si>
-  <si>
-    <t>00zoom</t>
-  </si>
-  <si>
-    <t>https://www.surveycake.com/s/q3W26</t>
-  </si>
-  <si>
-    <t>靈數塔羅占卜快速上手</t>
-  </si>
-  <si>
-    <t>貝瑪多傑/satako</t>
-  </si>
-  <si>
-    <t>https://reurl.cc/yrxd8E</t>
-  </si>
-  <si>
-    <t>個人DISC檢測與解析</t>
-  </si>
-  <si>
-    <t>https://forms.gle/ktSc3pUPy72Yczcx5</t>
-  </si>
-  <si>
-    <t>01台北</t>
-  </si>
-  <si>
-    <t>經典燭臺</t>
-  </si>
-  <si>
-    <t>10:30-12:00</t>
-  </si>
-  <si>
-    <t>牌卡療心手作擴香石</t>
-  </si>
-  <si>
-    <t>02台中</t>
-  </si>
-  <si>
-    <t>04台南北區</t>
-  </si>
-  <si>
-    <t>04台南市新市區富安二街141號「消防局正對面」</t>
   </si>
 </sst>
 </file>
@@ -1593,8 +1607,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L89"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="F68" sqref="F68"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -1605,7 +1619,7 @@
     <col min="4" max="4" width="20.375" customWidth="1"/>
     <col min="5" max="5" width="14.125" customWidth="1"/>
     <col min="7" max="7" width="21.625" customWidth="1"/>
-    <col min="8" max="8" width="25.5" customWidth="1"/>
+    <col min="8" max="8" width="30" customWidth="1"/>
     <col min="9" max="9" width="13.375" customWidth="1"/>
     <col min="10" max="10" width="29.625" customWidth="1"/>
     <col min="11" max="11" width="39.25" customWidth="1"/>
@@ -1613,45 +1627,45 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="B1" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="C1" t="s">
-        <v>158</v>
+        <v>210</v>
       </c>
       <c r="D1" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="E1" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="F1" t="s">
-        <v>159</v>
+        <v>215</v>
       </c>
       <c r="G1" t="s">
+        <v>206</v>
+      </c>
+      <c r="H1" t="s">
+        <v>146</v>
+      </c>
+      <c r="I1" t="s">
+        <v>147</v>
+      </c>
+      <c r="J1" t="s">
+        <v>211</v>
+      </c>
+      <c r="K1" t="s">
         <v>148</v>
       </c>
-      <c r="H1" t="s">
+      <c r="L1" t="s">
         <v>149</v>
-      </c>
-      <c r="I1" t="s">
-        <v>150</v>
-      </c>
-      <c r="J1" t="s">
-        <v>157</v>
-      </c>
-      <c r="K1" t="s">
-        <v>151</v>
-      </c>
-      <c r="L1" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>156</v>
+        <v>207</v>
       </c>
       <c r="D2" t="s">
         <v>0</v>
@@ -1671,7 +1685,7 @@
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>146</v>
+        <v>207</v>
       </c>
       <c r="D3" t="s">
         <v>0</v>
@@ -1691,7 +1705,7 @@
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>146</v>
+        <v>207</v>
       </c>
       <c r="D4" t="s">
         <v>0</v>
@@ -1711,7 +1725,7 @@
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>146</v>
+        <v>207</v>
       </c>
       <c r="D5" t="s">
         <v>0</v>
@@ -1731,10 +1745,10 @@
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>146</v>
+        <v>207</v>
       </c>
       <c r="D6" t="s">
-        <v>0</v>
+        <v>214</v>
       </c>
       <c r="E6" t="s">
         <v>12</v>
@@ -1751,7 +1765,7 @@
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>146</v>
+        <v>207</v>
       </c>
       <c r="B7" t="s">
         <v>15</v>
@@ -1762,6 +1776,9 @@
       <c r="D7" t="s">
         <v>17</v>
       </c>
+      <c r="E7" t="s">
+        <v>1</v>
+      </c>
       <c r="F7" t="s">
         <v>18</v>
       </c>
@@ -1780,7 +1797,7 @@
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>146</v>
+        <v>207</v>
       </c>
       <c r="B8" t="s">
         <v>15</v>
@@ -1812,7 +1829,7 @@
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>146</v>
+        <v>207</v>
       </c>
       <c r="B9" t="s">
         <v>139</v>
@@ -1836,18 +1853,18 @@
         <v>50</v>
       </c>
       <c r="I9" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="J9" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="K9" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>146</v>
+        <v>207</v>
       </c>
       <c r="B10" t="s">
         <v>139</v>
@@ -1865,13 +1882,13 @@
         <v>27</v>
       </c>
       <c r="G10" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="H10" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="I10" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="J10" t="s">
         <v>22</v>
@@ -1879,7 +1896,7 @@
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>146</v>
+        <v>207</v>
       </c>
       <c r="B11" t="s">
         <v>15</v>
@@ -1900,10 +1917,10 @@
         <v>71</v>
       </c>
       <c r="H11" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="I11" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="J11" t="s">
         <v>22</v>
@@ -1911,7 +1928,7 @@
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>146</v>
+        <v>207</v>
       </c>
       <c r="B12" t="s">
         <v>15</v>
@@ -1929,7 +1946,7 @@
         <v>51</v>
       </c>
       <c r="G12" t="s">
-        <v>52</v>
+        <v>213</v>
       </c>
       <c r="H12" t="s">
         <v>53</v>
@@ -1949,7 +1966,7 @@
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>146</v>
+        <v>207</v>
       </c>
       <c r="B13" t="s">
         <v>139</v>
@@ -1973,18 +1990,18 @@
         <v>58</v>
       </c>
       <c r="I13" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="J13" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="K13" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>146</v>
+        <v>207</v>
       </c>
       <c r="B14" t="s">
         <v>15</v>
@@ -2016,13 +2033,13 @@
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>146</v>
+        <v>207</v>
       </c>
       <c r="B15" t="s">
         <v>15</v>
       </c>
       <c r="C15" t="s">
-        <v>94</v>
+        <v>209</v>
       </c>
       <c r="D15" t="s">
         <v>33</v>
@@ -2034,10 +2051,10 @@
         <v>23</v>
       </c>
       <c r="G15" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
       <c r="H15" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="J15" t="s">
         <v>145</v>
@@ -2045,13 +2062,13 @@
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>146</v>
+        <v>207</v>
       </c>
       <c r="B16" t="s">
         <v>139</v>
       </c>
       <c r="C16" t="s">
-        <v>94</v>
+        <v>16</v>
       </c>
       <c r="D16" t="s">
         <v>33</v>
@@ -2063,13 +2080,13 @@
         <v>23</v>
       </c>
       <c r="G16" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="H16" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="I16" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="J16" t="s">
         <v>22</v>
@@ -2077,7 +2094,7 @@
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>146</v>
+        <v>207</v>
       </c>
       <c r="B17" t="s">
         <v>32</v>
@@ -2109,7 +2126,7 @@
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>146</v>
+        <v>207</v>
       </c>
       <c r="B18" t="s">
         <v>15</v>
@@ -2127,13 +2144,13 @@
         <v>59</v>
       </c>
       <c r="G18" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
       <c r="H18" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="I18" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="J18" t="s">
         <v>22</v>
@@ -2141,7 +2158,7 @@
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>146</v>
+        <v>207</v>
       </c>
       <c r="B19" t="s">
         <v>15</v>
@@ -2173,7 +2190,7 @@
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>146</v>
+        <v>207</v>
       </c>
       <c r="B20" t="s">
         <v>15</v>
@@ -2205,7 +2222,7 @@
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>146</v>
+        <v>207</v>
       </c>
       <c r="B21" t="s">
         <v>32</v>
@@ -2237,7 +2254,7 @@
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>146</v>
+        <v>207</v>
       </c>
       <c r="B22" t="s">
         <v>32</v>
@@ -2269,7 +2286,7 @@
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>146</v>
+        <v>207</v>
       </c>
       <c r="B23" t="s">
         <v>15</v>
@@ -2290,10 +2307,10 @@
         <v>71</v>
       </c>
       <c r="H23" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="I23" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="J23" t="s">
         <v>22</v>
@@ -2301,7 +2318,7 @@
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>146</v>
+        <v>207</v>
       </c>
       <c r="B24" t="s">
         <v>15</v>
@@ -2336,7 +2353,7 @@
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>146</v>
+        <v>207</v>
       </c>
       <c r="B25" t="s">
         <v>15</v>
@@ -2354,10 +2371,10 @@
         <v>57</v>
       </c>
       <c r="G25" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="H25" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="J25" t="s">
         <v>22</v>
@@ -2365,7 +2382,7 @@
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>146</v>
+        <v>207</v>
       </c>
       <c r="B26" t="s">
         <v>139</v>
@@ -2389,18 +2406,18 @@
         <v>67</v>
       </c>
       <c r="I26" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="J26" t="s">
         <v>22</v>
       </c>
       <c r="K26" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>146</v>
+        <v>207</v>
       </c>
       <c r="B27" t="s">
         <v>15</v>
@@ -2435,7 +2452,7 @@
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>146</v>
+        <v>207</v>
       </c>
       <c r="B28" t="s">
         <v>139</v>
@@ -2456,10 +2473,10 @@
         <v>107</v>
       </c>
       <c r="H28" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="I28" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="J28" t="s">
         <v>22</v>
@@ -2467,7 +2484,7 @@
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>146</v>
+        <v>207</v>
       </c>
       <c r="B29" t="s">
         <v>15</v>
@@ -2499,7 +2516,7 @@
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>146</v>
+        <v>207</v>
       </c>
       <c r="B30" t="s">
         <v>15</v>
@@ -2534,7 +2551,7 @@
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>146</v>
+        <v>207</v>
       </c>
       <c r="B31" t="s">
         <v>32</v>
@@ -2566,7 +2583,7 @@
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>146</v>
+        <v>207</v>
       </c>
       <c r="B32" t="s">
         <v>15</v>
@@ -2584,13 +2601,13 @@
         <v>59</v>
       </c>
       <c r="G32" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
       <c r="H32" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="I32" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="J32" t="s">
         <v>22</v>
@@ -2598,7 +2615,7 @@
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>146</v>
+        <v>207</v>
       </c>
       <c r="B33" t="s">
         <v>15</v>
@@ -2633,7 +2650,7 @@
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>146</v>
+        <v>207</v>
       </c>
       <c r="B34" t="s">
         <v>15</v>
@@ -2665,7 +2682,7 @@
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>146</v>
+        <v>207</v>
       </c>
       <c r="B35" t="s">
         <v>32</v>
@@ -2697,7 +2714,7 @@
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>146</v>
+        <v>207</v>
       </c>
       <c r="B36" t="s">
         <v>15</v>
@@ -2732,7 +2749,7 @@
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>146</v>
+        <v>207</v>
       </c>
       <c r="B37" t="s">
         <v>15</v>
@@ -2750,13 +2767,13 @@
         <v>27</v>
       </c>
       <c r="G37" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
       <c r="H37" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c r="I37" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="J37" t="s">
         <v>22</v>
@@ -2764,7 +2781,7 @@
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>146</v>
+        <v>207</v>
       </c>
       <c r="B38" t="s">
         <v>15</v>
@@ -2802,7 +2819,7 @@
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>146</v>
+        <v>207</v>
       </c>
       <c r="B39" t="s">
         <v>15</v>
@@ -2823,7 +2840,7 @@
         <v>46</v>
       </c>
       <c r="H39" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="I39" t="s">
         <v>47</v>
@@ -2834,7 +2851,7 @@
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>146</v>
+        <v>207</v>
       </c>
       <c r="B40" t="s">
         <v>15</v>
@@ -2858,7 +2875,7 @@
         <v>79</v>
       </c>
       <c r="I40" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
       <c r="J40" t="s">
         <v>22</v>
@@ -2872,7 +2889,7 @@
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>146</v>
+        <v>207</v>
       </c>
       <c r="B41" t="s">
         <v>15</v>
@@ -2893,10 +2910,10 @@
         <v>71</v>
       </c>
       <c r="H41" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="I41" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="J41" t="s">
         <v>22</v>
@@ -2904,7 +2921,7 @@
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>146</v>
+        <v>207</v>
       </c>
       <c r="B42" t="s">
         <v>15</v>
@@ -2942,7 +2959,7 @@
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>146</v>
+        <v>207</v>
       </c>
       <c r="B43" t="s">
         <v>139</v>
@@ -2966,18 +2983,18 @@
         <v>89</v>
       </c>
       <c r="I43" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="J43" t="s">
         <v>22</v>
       </c>
       <c r="K43" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>146</v>
+        <v>207</v>
       </c>
       <c r="B44" t="s">
         <v>15</v>
@@ -3009,7 +3026,7 @@
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>146</v>
+        <v>207</v>
       </c>
       <c r="B45" t="s">
         <v>15</v>
@@ -3027,13 +3044,13 @@
         <v>23</v>
       </c>
       <c r="G45" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
       <c r="H45" t="s">
-        <v>186</v>
+        <v>179</v>
       </c>
       <c r="I45" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="J45" t="s">
         <v>22</v>
@@ -3041,7 +3058,7 @@
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>146</v>
+        <v>207</v>
       </c>
       <c r="B46" t="s">
         <v>32</v>
@@ -3073,7 +3090,7 @@
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>146</v>
+        <v>207</v>
       </c>
       <c r="B47" t="s">
         <v>15</v>
@@ -3094,10 +3111,10 @@
         <v>85</v>
       </c>
       <c r="H47" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="I47" t="s">
-        <v>189</v>
+        <v>182</v>
       </c>
       <c r="J47" t="s">
         <v>22</v>
@@ -3105,7 +3122,7 @@
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>146</v>
+        <v>207</v>
       </c>
       <c r="B48" t="s">
         <v>15</v>
@@ -3123,13 +3140,13 @@
         <v>59</v>
       </c>
       <c r="G48" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
       <c r="H48" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="I48" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="J48" t="s">
         <v>22</v>
@@ -3137,7 +3154,7 @@
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>146</v>
+        <v>207</v>
       </c>
       <c r="B49" t="s">
         <v>15</v>
@@ -3169,7 +3186,7 @@
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>146</v>
+        <v>207</v>
       </c>
       <c r="B50" t="s">
         <v>15</v>
@@ -3204,7 +3221,7 @@
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>146</v>
+        <v>207</v>
       </c>
       <c r="B51" t="s">
         <v>15</v>
@@ -3236,10 +3253,10 @@
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>146</v>
+        <v>207</v>
       </c>
       <c r="B52" t="s">
-        <v>32</v>
+        <v>212</v>
       </c>
       <c r="C52" t="s">
         <v>16</v>
@@ -3268,7 +3285,7 @@
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>146</v>
+        <v>207</v>
       </c>
       <c r="B53" t="s">
         <v>15</v>
@@ -3303,7 +3320,7 @@
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>146</v>
+        <v>207</v>
       </c>
       <c r="B54" t="s">
         <v>15</v>
@@ -3324,10 +3341,10 @@
         <v>71</v>
       </c>
       <c r="H54" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="I54" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="J54" t="s">
         <v>22</v>
@@ -3335,7 +3352,7 @@
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>146</v>
+        <v>207</v>
       </c>
       <c r="B55" t="s">
         <v>15</v>
@@ -3353,13 +3370,13 @@
         <v>36</v>
       </c>
       <c r="G55" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="H55" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
       <c r="I55" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="J55" t="s">
         <v>22</v>
@@ -3367,7 +3384,7 @@
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>146</v>
+        <v>207</v>
       </c>
       <c r="B56" t="s">
         <v>15</v>
@@ -3405,7 +3422,7 @@
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>146</v>
+        <v>207</v>
       </c>
       <c r="B57" t="s">
         <v>15</v>
@@ -3423,13 +3440,13 @@
         <v>38</v>
       </c>
       <c r="G57" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="H57" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
       <c r="I57" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="J57" t="s">
         <v>22</v>
@@ -3437,7 +3454,7 @@
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>146</v>
+        <v>207</v>
       </c>
       <c r="B58" t="s">
         <v>15</v>
@@ -3475,7 +3492,7 @@
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>146</v>
+        <v>207</v>
       </c>
       <c r="B59" t="s">
         <v>15</v>
@@ -3507,7 +3524,7 @@
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>146</v>
+        <v>207</v>
       </c>
       <c r="B60" t="s">
         <v>15</v>
@@ -3525,13 +3542,13 @@
         <v>59</v>
       </c>
       <c r="G60" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
       <c r="H60" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="I60" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="J60" t="s">
         <v>22</v>
@@ -3539,7 +3556,7 @@
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>146</v>
+        <v>207</v>
       </c>
       <c r="B61" t="s">
         <v>15</v>
@@ -3571,7 +3588,7 @@
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>146</v>
+        <v>207</v>
       </c>
       <c r="B62" t="s">
         <v>15</v>
@@ -3589,13 +3606,13 @@
         <v>27</v>
       </c>
       <c r="G62" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
       <c r="H62" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c r="I62" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="J62" t="s">
         <v>22</v>
@@ -3603,7 +3620,7 @@
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>146</v>
+        <v>207</v>
       </c>
       <c r="B63" t="s">
         <v>15</v>
@@ -3638,7 +3655,7 @@
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>146</v>
+        <v>207</v>
       </c>
       <c r="B64" t="s">
         <v>15</v>
@@ -3659,10 +3676,10 @@
         <v>71</v>
       </c>
       <c r="H64" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="I64" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="J64" t="s">
         <v>22</v>
@@ -3670,7 +3687,7 @@
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>146</v>
+        <v>207</v>
       </c>
       <c r="B65" t="s">
         <v>15</v>
@@ -3688,13 +3705,13 @@
         <v>36</v>
       </c>
       <c r="G65" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
       <c r="H65" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
       <c r="I65" t="s">
-        <v>195</v>
+        <v>188</v>
       </c>
       <c r="J65" t="s">
         <v>22</v>
@@ -3702,7 +3719,7 @@
     </row>
     <row r="66" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>147</v>
+        <v>208</v>
       </c>
       <c r="B66" t="s">
         <v>101</v>
@@ -3740,7 +3757,7 @@
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>147</v>
+        <v>208</v>
       </c>
       <c r="B67" t="s">
         <v>101</v>
@@ -3758,24 +3775,24 @@
         <v>36</v>
       </c>
       <c r="G67" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
       <c r="H67" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="I67" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
       <c r="J67" t="s">
-        <v>199</v>
+        <v>192</v>
       </c>
       <c r="K67" t="s">
-        <v>200</v>
+        <v>193</v>
       </c>
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>147</v>
+        <v>208</v>
       </c>
       <c r="B68" t="s">
         <v>101</v>
@@ -3793,24 +3810,24 @@
         <v>36</v>
       </c>
       <c r="G68" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
       <c r="H68" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="I68" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
       <c r="J68" t="s">
-        <v>199</v>
+        <v>192</v>
       </c>
       <c r="K68" t="s">
-        <v>200</v>
+        <v>193</v>
       </c>
     </row>
     <row r="69" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>147</v>
+        <v>208</v>
       </c>
       <c r="B69" t="s">
         <v>101</v>
@@ -3831,16 +3848,16 @@
         <v>81</v>
       </c>
       <c r="H69" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="I69" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
       <c r="J69" t="s">
-        <v>199</v>
+        <v>192</v>
       </c>
       <c r="K69" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="L69" t="s">
         <v>48</v>
@@ -3848,7 +3865,7 @@
     </row>
     <row r="70" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>147</v>
+        <v>208</v>
       </c>
       <c r="B70" t="s">
         <v>101</v>
@@ -3866,24 +3883,24 @@
         <v>36</v>
       </c>
       <c r="G70" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
       <c r="H70" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="I70" t="s">
-        <v>195</v>
+        <v>188</v>
       </c>
       <c r="J70" t="s">
-        <v>199</v>
+        <v>192</v>
       </c>
       <c r="K70" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
     </row>
     <row r="71" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>147</v>
+        <v>208</v>
       </c>
       <c r="B71" t="s">
         <v>134</v>
@@ -3910,7 +3927,7 @@
         <v>137</v>
       </c>
       <c r="J71" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
       <c r="K71" t="s">
         <v>138</v>
@@ -3918,7 +3935,7 @@
     </row>
     <row r="72" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>147</v>
+        <v>208</v>
       </c>
       <c r="B72" t="s">
         <v>101</v>
@@ -3956,7 +3973,7 @@
     </row>
     <row r="73" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>147</v>
+        <v>208</v>
       </c>
       <c r="B73" t="s">
         <v>101</v>
@@ -3977,7 +3994,7 @@
         <v>107</v>
       </c>
       <c r="H73" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="I73" t="s">
         <v>108</v>
@@ -3994,7 +4011,7 @@
     </row>
     <row r="74" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>147</v>
+        <v>208</v>
       </c>
       <c r="B74" t="s">
         <v>139</v>
@@ -4021,7 +4038,7 @@
         <v>137</v>
       </c>
       <c r="J74" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
       <c r="K74" t="s">
         <v>141</v>
@@ -4029,7 +4046,7 @@
     </row>
     <row r="75" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>147</v>
+        <v>208</v>
       </c>
       <c r="B75" t="s">
         <v>139</v>
@@ -4056,7 +4073,7 @@
         <v>137</v>
       </c>
       <c r="J75" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
       <c r="K75" t="s">
         <v>141</v>
@@ -4064,7 +4081,7 @@
     </row>
     <row r="76" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>147</v>
+        <v>208</v>
       </c>
       <c r="B76" t="s">
         <v>139</v>
@@ -4091,7 +4108,7 @@
         <v>137</v>
       </c>
       <c r="J76" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
       <c r="K76" t="s">
         <v>138</v>
@@ -4099,7 +4116,7 @@
     </row>
     <row r="77" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>147</v>
+        <v>208</v>
       </c>
       <c r="B77" t="s">
         <v>134</v>
@@ -4134,7 +4151,7 @@
     </row>
     <row r="78" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>147</v>
+        <v>208</v>
       </c>
       <c r="B78" t="s">
         <v>101</v>
@@ -4172,7 +4189,7 @@
     </row>
     <row r="79" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>147</v>
+        <v>208</v>
       </c>
       <c r="B79" t="s">
         <v>101</v>
@@ -4193,7 +4210,7 @@
         <v>112</v>
       </c>
       <c r="H79" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="I79" t="s">
         <v>108</v>
@@ -4210,7 +4227,7 @@
     </row>
     <row r="80" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>147</v>
+        <v>208</v>
       </c>
       <c r="B80" t="s">
         <v>101</v>
@@ -4228,10 +4245,10 @@
         <v>51</v>
       </c>
       <c r="G80" t="s">
-        <v>208</v>
+        <v>201</v>
       </c>
       <c r="H80" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="I80" t="s">
         <v>87</v>
@@ -4242,7 +4259,7 @@
     </row>
     <row r="81" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>147</v>
+        <v>208</v>
       </c>
       <c r="B81" t="s">
         <v>139</v>
@@ -4269,7 +4286,7 @@
         <v>145</v>
       </c>
       <c r="J81" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="K81" t="s">
         <v>141</v>
@@ -4277,7 +4294,7 @@
     </row>
     <row r="82" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>147</v>
+        <v>208</v>
       </c>
       <c r="B82" t="s">
         <v>139</v>
@@ -4304,7 +4321,7 @@
         <v>145</v>
       </c>
       <c r="J82" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="K82" t="s">
         <v>138</v>
@@ -4312,7 +4329,7 @@
     </row>
     <row r="83" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>147</v>
+        <v>208</v>
       </c>
       <c r="B83" t="s">
         <v>101</v>
@@ -4339,7 +4356,7 @@
         <v>115</v>
       </c>
       <c r="J83" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="K83" t="s">
         <v>116</v>
@@ -4350,7 +4367,7 @@
     </row>
     <row r="84" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>147</v>
+        <v>208</v>
       </c>
       <c r="B84" t="s">
         <v>101</v>
@@ -4377,7 +4394,7 @@
         <v>115</v>
       </c>
       <c r="J84" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="K84" t="s">
         <v>116</v>
@@ -4388,7 +4405,7 @@
     </row>
     <row r="85" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>147</v>
+        <v>208</v>
       </c>
       <c r="B85" t="s">
         <v>101</v>
@@ -4415,7 +4432,7 @@
         <v>115</v>
       </c>
       <c r="J85" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="K85" t="s">
         <v>116</v>
@@ -4426,7 +4443,7 @@
     </row>
     <row r="86" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>147</v>
+        <v>208</v>
       </c>
       <c r="B86" t="s">
         <v>101</v>
@@ -4453,7 +4470,7 @@
         <v>124</v>
       </c>
       <c r="J86" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="K86" t="s">
         <v>125</v>
@@ -4464,7 +4481,7 @@
     </row>
     <row r="87" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>147</v>
+        <v>208</v>
       </c>
       <c r="B87" t="s">
         <v>101</v>
@@ -4491,7 +4508,7 @@
         <v>115</v>
       </c>
       <c r="J87" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="K87" t="s">
         <v>116</v>
@@ -4502,7 +4519,7 @@
     </row>
     <row r="88" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>147</v>
+        <v>208</v>
       </c>
       <c r="B88" t="s">
         <v>101</v>
@@ -4529,7 +4546,7 @@
         <v>115</v>
       </c>
       <c r="J88" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="K88" t="s">
         <v>116</v>
@@ -4540,7 +4557,7 @@
     </row>
     <row r="89" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>147</v>
+        <v>208</v>
       </c>
       <c r="B89" t="s">
         <v>101</v>
@@ -4567,7 +4584,7 @@
         <v>115</v>
       </c>
       <c r="J89" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="K89" t="s">
         <v>116</v>
@@ -4578,10 +4595,7 @@
     </row>
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
-  <hyperlinks>
-    <hyperlink ref="K18" r:id="rId1" display="https://m.facebook.com/groups/393653484462016"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="1200" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>